--- a/data/interim/my_ig_posts_2022_processed.xlsx
+++ b/data/interim/my_ig_posts_2022_processed.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93345f1c83a5c894/lighthouse/portfolio-projects/online-PT-social-media-NLP/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7F50001-C206-47E8-A6C5-41354A93A2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{F7F50001-C206-47E8-A6C5-41354A93A2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{611C1FDF-6000-49FC-A099-841F002EDC61}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776"/>
+    <workbookView minimized="1" xWindow="8976" yWindow="19152" windowWidth="17724" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="my_ig_posts_2022_processed" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1549,7 +1562,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2027,10 +2040,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2385,27 +2401,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S810"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="137.44140625" customWidth="1"/>
+    <col min="3" max="3" width="137.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -2464,7 +2480,7 @@
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D2">
@@ -2510,14 +2526,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D3">
@@ -2566,14 +2582,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D4">
@@ -2629,7 +2645,7 @@
       <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D5">
@@ -2675,14 +2691,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D6">
@@ -2731,14 +2747,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D7">
@@ -2787,14 +2803,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D8">
@@ -2843,14 +2859,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D9">
@@ -2899,14 +2915,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D10">
@@ -2955,14 +2971,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D11">
@@ -3014,14 +3030,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D12">
@@ -3073,14 +3089,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>78</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D13">
@@ -3139,7 +3155,7 @@
       <c r="B14" t="s">
         <v>84</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D14">
@@ -3185,14 +3201,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>88</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D15">
@@ -3241,14 +3257,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>93</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D16">
@@ -3301,7 +3317,7 @@
       <c r="B17" t="s">
         <v>97</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D17">
@@ -3350,14 +3366,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>102</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D18">
@@ -3416,7 +3432,7 @@
       <c r="B19" t="s">
         <v>108</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D19">
@@ -3472,7 +3488,7 @@
       <c r="B20" t="s">
         <v>112</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D20">
@@ -3528,7 +3544,7 @@
       <c r="B21" t="s">
         <v>117</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D21">
@@ -3584,7 +3600,7 @@
       <c r="B22" t="s">
         <v>122</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D22">
@@ -3637,7 +3653,7 @@
       <c r="B23" t="s">
         <v>126</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D23">
@@ -3683,14 +3699,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>130</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D24">
@@ -3746,7 +3762,7 @@
       <c r="B25" t="s">
         <v>135</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D25">
@@ -3802,7 +3818,7 @@
       <c r="B26" t="s">
         <v>140</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>141</v>
       </c>
       <c r="D26">
@@ -3855,7 +3871,7 @@
       <c r="B27" t="s">
         <v>144</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D27">
@@ -3908,7 +3924,7 @@
       <c r="B28" t="s">
         <v>147</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D28">
@@ -3964,7 +3980,7 @@
       <c r="B29" t="s">
         <v>151</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D29">
@@ -4017,7 +4033,7 @@
       <c r="B30" t="s">
         <v>155</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D30">
@@ -4066,14 +4082,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>160</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D31">
@@ -4125,14 +4141,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>166</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D32">
@@ -4188,7 +4204,7 @@
       <c r="B33" t="s">
         <v>171</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D33">
@@ -4244,7 +4260,7 @@
       <c r="B34" t="s">
         <v>176</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D34">
@@ -4297,7 +4313,7 @@
       <c r="B35" t="s">
         <v>180</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D35">
@@ -4353,7 +4369,7 @@
       <c r="B36" t="s">
         <v>185</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D36">
@@ -4406,7 +4422,7 @@
       <c r="B37" t="s">
         <v>188</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D37">
@@ -4455,14 +4471,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>193</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D38">
@@ -4511,14 +4527,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>198</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D39">
@@ -4577,7 +4593,7 @@
       <c r="B40" t="s">
         <v>204</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D40">
@@ -4626,14 +4642,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>209</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D41">
@@ -4682,14 +4698,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>214</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D42">
@@ -4748,7 +4764,7 @@
       <c r="B43" t="s">
         <v>144</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D43">
@@ -4801,7 +4817,7 @@
       <c r="B44" t="s">
         <v>147</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D44">
@@ -4857,7 +4873,7 @@
       <c r="B45" t="s">
         <v>151</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D45">
@@ -4910,7 +4926,7 @@
       <c r="B46" t="s">
         <v>155</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D46">
@@ -4959,14 +4975,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>160</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D47">
@@ -5018,14 +5034,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>166</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D48">
@@ -5081,7 +5097,7 @@
       <c r="B49" t="s">
         <v>171</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D49">
@@ -5137,7 +5153,7 @@
       <c r="B50" t="s">
         <v>176</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D50">
@@ -5190,7 +5206,7 @@
       <c r="B51" t="s">
         <v>180</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D51">
@@ -5246,7 +5262,7 @@
       <c r="B52" t="s">
         <v>185</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D52">
@@ -5299,7 +5315,7 @@
       <c r="B53" t="s">
         <v>188</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D53">
@@ -5348,14 +5364,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>193</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D54">
@@ -5404,14 +5420,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>198</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D55">
@@ -5470,7 +5486,7 @@
       <c r="B56" t="s">
         <v>204</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D56">
@@ -5519,14 +5535,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>209</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D57">
@@ -5575,14 +5591,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>214</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D58">
@@ -5641,7 +5657,7 @@
       <c r="B59" t="s">
         <v>144</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D59">
@@ -5694,7 +5710,7 @@
       <c r="B60" t="s">
         <v>147</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D60">
@@ -5750,7 +5766,7 @@
       <c r="B61" t="s">
         <v>151</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D61">
@@ -5803,7 +5819,7 @@
       <c r="B62" t="s">
         <v>155</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D62">
@@ -5852,14 +5868,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>160</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D63">
@@ -5911,14 +5927,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>166</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D64">
@@ -5974,7 +5990,7 @@
       <c r="B65" t="s">
         <v>171</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D65">
@@ -6030,7 +6046,7 @@
       <c r="B66" t="s">
         <v>176</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D66">
@@ -6083,7 +6099,7 @@
       <c r="B67" t="s">
         <v>180</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D67">
@@ -6139,7 +6155,7 @@
       <c r="B68" t="s">
         <v>185</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D68">
@@ -6192,7 +6208,7 @@
       <c r="B69" t="s">
         <v>188</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D69">
@@ -6241,14 +6257,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>193</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D70">
@@ -6297,14 +6313,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>198</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D71">
@@ -6363,7 +6379,7 @@
       <c r="B72" t="s">
         <v>204</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D72">
@@ -6412,14 +6428,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>209</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D73">
@@ -6468,14 +6484,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>214</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D74">
@@ -6534,7 +6550,7 @@
       <c r="B75" t="s">
         <v>144</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D75">
@@ -6587,7 +6603,7 @@
       <c r="B76" t="s">
         <v>147</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D76">
@@ -6643,7 +6659,7 @@
       <c r="B77" t="s">
         <v>151</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D77">
@@ -6696,7 +6712,7 @@
       <c r="B78" t="s">
         <v>155</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D78">
@@ -6745,14 +6761,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>160</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D79">
@@ -6804,14 +6820,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>166</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D80">
@@ -6867,7 +6883,7 @@
       <c r="B81" t="s">
         <v>171</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D81">
@@ -6923,7 +6939,7 @@
       <c r="B82" t="s">
         <v>176</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D82">
@@ -6976,7 +6992,7 @@
       <c r="B83" t="s">
         <v>180</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D83">
@@ -7032,7 +7048,7 @@
       <c r="B84" t="s">
         <v>185</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D84">
@@ -7085,7 +7101,7 @@
       <c r="B85" t="s">
         <v>188</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D85">
@@ -7134,14 +7150,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>193</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D86">
@@ -7190,14 +7206,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>198</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D87">
@@ -7256,7 +7272,7 @@
       <c r="B88" t="s">
         <v>204</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D88">
@@ -7305,14 +7321,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>209</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D89">
@@ -7361,14 +7377,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>214</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D90">
@@ -7427,7 +7443,7 @@
       <c r="B91" t="s">
         <v>144</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D91">
@@ -7480,7 +7496,7 @@
       <c r="B92" t="s">
         <v>147</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D92">
@@ -7536,7 +7552,7 @@
       <c r="B93" t="s">
         <v>151</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D93">
@@ -7589,7 +7605,7 @@
       <c r="B94" t="s">
         <v>155</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D94">
@@ -7638,14 +7654,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>160</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D95">
@@ -7697,14 +7713,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>166</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D96">
@@ -7760,7 +7776,7 @@
       <c r="B97" t="s">
         <v>171</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D97">
@@ -7816,7 +7832,7 @@
       <c r="B98" t="s">
         <v>176</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D98">
@@ -7869,7 +7885,7 @@
       <c r="B99" t="s">
         <v>180</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D99">
@@ -7925,7 +7941,7 @@
       <c r="B100" t="s">
         <v>185</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D100">
@@ -7978,7 +7994,7 @@
       <c r="B101" t="s">
         <v>188</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D101">
@@ -8027,14 +8043,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>193</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D102">
@@ -8083,14 +8099,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>198</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D103">
@@ -8149,7 +8165,7 @@
       <c r="B104" t="s">
         <v>204</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D104">
@@ -8198,14 +8214,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>209</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D105">
@@ -8254,14 +8270,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>214</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D106">
@@ -8320,7 +8336,7 @@
       <c r="B107" t="s">
         <v>144</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D107">
@@ -8373,7 +8389,7 @@
       <c r="B108" t="s">
         <v>147</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D108">
@@ -8429,7 +8445,7 @@
       <c r="B109" t="s">
         <v>151</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D109">
@@ -8482,7 +8498,7 @@
       <c r="B110" t="s">
         <v>155</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D110">
@@ -8531,14 +8547,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
       <c r="B111" t="s">
         <v>160</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D111">
@@ -8590,14 +8606,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
       <c r="B112" t="s">
         <v>166</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D112">
@@ -8653,7 +8669,7 @@
       <c r="B113" t="s">
         <v>171</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D113">
@@ -8709,7 +8725,7 @@
       <c r="B114" t="s">
         <v>176</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D114">
@@ -8762,7 +8778,7 @@
       <c r="B115" t="s">
         <v>180</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D115">
@@ -8818,7 +8834,7 @@
       <c r="B116" t="s">
         <v>185</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D116">
@@ -8871,7 +8887,7 @@
       <c r="B117" t="s">
         <v>188</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D117">
@@ -8920,14 +8936,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
       <c r="B118" t="s">
         <v>193</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D118">
@@ -8976,14 +8992,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
       <c r="B119" t="s">
         <v>198</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D119">
@@ -9042,7 +9058,7 @@
       <c r="B120" t="s">
         <v>204</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D120">
@@ -9091,14 +9107,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
       <c r="B121" t="s">
         <v>209</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D121">
@@ -9147,14 +9163,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
       <c r="B122" t="s">
         <v>214</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D122">
@@ -9213,7 +9229,7 @@
       <c r="B123" t="s">
         <v>144</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D123">
@@ -9266,7 +9282,7 @@
       <c r="B124" t="s">
         <v>147</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D124">
@@ -9322,7 +9338,7 @@
       <c r="B125" t="s">
         <v>151</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D125">
@@ -9375,7 +9391,7 @@
       <c r="B126" t="s">
         <v>155</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D126">
@@ -9424,14 +9440,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
       <c r="B127" t="s">
         <v>160</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D127">
@@ -9483,14 +9499,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
       <c r="B128" t="s">
         <v>166</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D128">
@@ -9546,7 +9562,7 @@
       <c r="B129" t="s">
         <v>171</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D129">
@@ -9602,7 +9618,7 @@
       <c r="B130" t="s">
         <v>176</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D130">
@@ -9655,7 +9671,7 @@
       <c r="B131" t="s">
         <v>180</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D131">
@@ -9711,7 +9727,7 @@
       <c r="B132" t="s">
         <v>185</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D132">
@@ -9764,7 +9780,7 @@
       <c r="B133" t="s">
         <v>188</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D133">
@@ -9813,14 +9829,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
       <c r="B134" t="s">
         <v>193</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D134">
@@ -9869,14 +9885,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
       <c r="B135" t="s">
         <v>198</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D135">
@@ -9935,7 +9951,7 @@
       <c r="B136" t="s">
         <v>204</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D136">
@@ -9984,14 +10000,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
       <c r="B137" t="s">
         <v>209</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D137">
@@ -10040,14 +10056,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
       <c r="B138" t="s">
         <v>214</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D138">
@@ -10106,7 +10122,7 @@
       <c r="B139" t="s">
         <v>144</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D139">
@@ -10159,7 +10175,7 @@
       <c r="B140" t="s">
         <v>147</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D140">
@@ -10215,7 +10231,7 @@
       <c r="B141" t="s">
         <v>151</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D141">
@@ -10268,7 +10284,7 @@
       <c r="B142" t="s">
         <v>155</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D142">
@@ -10317,14 +10333,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
       <c r="B143" t="s">
         <v>160</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D143">
@@ -10376,14 +10392,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
       <c r="B144" t="s">
         <v>166</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D144">
@@ -10439,7 +10455,7 @@
       <c r="B145" t="s">
         <v>171</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D145">
@@ -10495,7 +10511,7 @@
       <c r="B146" t="s">
         <v>176</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D146">
@@ -10548,7 +10564,7 @@
       <c r="B147" t="s">
         <v>180</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D147">
@@ -10604,7 +10620,7 @@
       <c r="B148" t="s">
         <v>185</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D148">
@@ -10657,7 +10673,7 @@
       <c r="B149" t="s">
         <v>188</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D149">
@@ -10706,14 +10722,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
       <c r="B150" t="s">
         <v>193</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D150">
@@ -10762,14 +10778,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
       <c r="B151" t="s">
         <v>198</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D151">
@@ -10828,7 +10844,7 @@
       <c r="B152" t="s">
         <v>204</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D152">
@@ -10877,14 +10893,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
       <c r="B153" t="s">
         <v>209</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D153">
@@ -10933,14 +10949,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
       <c r="B154" t="s">
         <v>214</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D154">
@@ -10999,7 +11015,7 @@
       <c r="B155" t="s">
         <v>144</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D155">
@@ -11052,7 +11068,7 @@
       <c r="B156" t="s">
         <v>147</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D156">
@@ -11108,7 +11124,7 @@
       <c r="B157" t="s">
         <v>151</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D157">
@@ -11161,7 +11177,7 @@
       <c r="B158" t="s">
         <v>155</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D158">
@@ -11210,14 +11226,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>157</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D159">
@@ -11269,14 +11285,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>158</v>
       </c>
       <c r="B160" t="s">
         <v>166</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D160">
@@ -11332,7 +11348,7 @@
       <c r="B161" t="s">
         <v>171</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D161">
@@ -11388,7 +11404,7 @@
       <c r="B162" t="s">
         <v>176</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D162">
@@ -11441,7 +11457,7 @@
       <c r="B163" t="s">
         <v>180</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D163">
@@ -11497,7 +11513,7 @@
       <c r="B164" t="s">
         <v>185</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D164">
@@ -11550,7 +11566,7 @@
       <c r="B165" t="s">
         <v>188</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D165">
@@ -11599,14 +11615,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>164</v>
       </c>
       <c r="B166" t="s">
         <v>193</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D166">
@@ -11655,14 +11671,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>165</v>
       </c>
       <c r="B167" t="s">
         <v>198</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D167">
@@ -11721,7 +11737,7 @@
       <c r="B168" t="s">
         <v>204</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D168">
@@ -11770,14 +11786,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>167</v>
       </c>
       <c r="B169" t="s">
         <v>209</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D169">
@@ -11826,14 +11842,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>168</v>
       </c>
       <c r="B170" t="s">
         <v>214</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D170">
@@ -11892,7 +11908,7 @@
       <c r="B171" t="s">
         <v>144</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D171">
@@ -11945,7 +11961,7 @@
       <c r="B172" t="s">
         <v>147</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D172">
@@ -12001,7 +12017,7 @@
       <c r="B173" t="s">
         <v>151</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D173">
@@ -12054,7 +12070,7 @@
       <c r="B174" t="s">
         <v>155</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D174">
@@ -12103,14 +12119,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>173</v>
       </c>
       <c r="B175" t="s">
         <v>160</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D175">
@@ -12162,14 +12178,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>174</v>
       </c>
       <c r="B176" t="s">
         <v>166</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D176">
@@ -12225,7 +12241,7 @@
       <c r="B177" t="s">
         <v>171</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D177">
@@ -12281,7 +12297,7 @@
       <c r="B178" t="s">
         <v>176</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D178">
@@ -12334,7 +12350,7 @@
       <c r="B179" t="s">
         <v>180</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D179">
@@ -12390,7 +12406,7 @@
       <c r="B180" t="s">
         <v>185</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D180">
@@ -12443,7 +12459,7 @@
       <c r="B181" t="s">
         <v>188</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D181">
@@ -12492,14 +12508,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>180</v>
       </c>
       <c r="B182" t="s">
         <v>193</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D182">
@@ -12548,14 +12564,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>181</v>
       </c>
       <c r="B183" t="s">
         <v>198</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D183">
@@ -12614,7 +12630,7 @@
       <c r="B184" t="s">
         <v>204</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D184">
@@ -12663,14 +12679,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>183</v>
       </c>
       <c r="B185" t="s">
         <v>209</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D185">
@@ -12719,14 +12735,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>184</v>
       </c>
       <c r="B186" t="s">
         <v>214</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D186">
@@ -12785,7 +12801,7 @@
       <c r="B187" t="s">
         <v>144</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D187">
@@ -12838,7 +12854,7 @@
       <c r="B188" t="s">
         <v>147</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D188">
@@ -12894,7 +12910,7 @@
       <c r="B189" t="s">
         <v>151</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D189">
@@ -12947,7 +12963,7 @@
       <c r="B190" t="s">
         <v>155</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D190">
@@ -12996,14 +13012,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>189</v>
       </c>
       <c r="B191" t="s">
         <v>160</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D191">
@@ -13055,14 +13071,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>190</v>
       </c>
       <c r="B192" t="s">
         <v>166</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D192">
@@ -13118,7 +13134,7 @@
       <c r="B193" t="s">
         <v>171</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D193">
@@ -13174,7 +13190,7 @@
       <c r="B194" t="s">
         <v>176</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D194">
@@ -13227,7 +13243,7 @@
       <c r="B195" t="s">
         <v>180</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D195">
@@ -13283,7 +13299,7 @@
       <c r="B196" t="s">
         <v>185</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D196">
@@ -13336,7 +13352,7 @@
       <c r="B197" t="s">
         <v>188</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D197">
@@ -13385,14 +13401,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>196</v>
       </c>
       <c r="B198" t="s">
         <v>193</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D198">
@@ -13441,14 +13457,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>197</v>
       </c>
       <c r="B199" t="s">
         <v>198</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D199">
@@ -13507,7 +13523,7 @@
       <c r="B200" t="s">
         <v>204</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D200">
@@ -13556,14 +13572,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>199</v>
       </c>
       <c r="B201" t="s">
         <v>209</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D201">
@@ -13612,14 +13628,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>200</v>
       </c>
       <c r="B202" t="s">
         <v>214</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D202">
@@ -13678,7 +13694,7 @@
       <c r="B203" t="s">
         <v>144</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D203">
@@ -13731,7 +13747,7 @@
       <c r="B204" t="s">
         <v>147</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D204">
@@ -13787,7 +13803,7 @@
       <c r="B205" t="s">
         <v>151</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D205">
@@ -13840,7 +13856,7 @@
       <c r="B206" t="s">
         <v>155</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D206">
@@ -13889,14 +13905,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>205</v>
       </c>
       <c r="B207" t="s">
         <v>160</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D207">
@@ -13948,14 +13964,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>206</v>
       </c>
       <c r="B208" t="s">
         <v>166</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D208">
@@ -14011,7 +14027,7 @@
       <c r="B209" t="s">
         <v>171</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D209">
@@ -14067,7 +14083,7 @@
       <c r="B210" t="s">
         <v>176</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D210">
@@ -14120,7 +14136,7 @@
       <c r="B211" t="s">
         <v>180</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D211">
@@ -14176,7 +14192,7 @@
       <c r="B212" t="s">
         <v>185</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D212">
@@ -14229,7 +14245,7 @@
       <c r="B213" t="s">
         <v>188</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D213">
@@ -14278,14 +14294,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>212</v>
       </c>
       <c r="B214" t="s">
         <v>193</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D214">
@@ -14334,14 +14350,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>213</v>
       </c>
       <c r="B215" t="s">
         <v>198</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D215">
@@ -14400,7 +14416,7 @@
       <c r="B216" t="s">
         <v>204</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D216">
@@ -14449,14 +14465,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>215</v>
       </c>
       <c r="B217" t="s">
         <v>209</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D217">
@@ -14505,14 +14521,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>216</v>
       </c>
       <c r="B218" t="s">
         <v>214</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D218">
@@ -14571,7 +14587,7 @@
       <c r="B219" t="s">
         <v>144</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D219">
@@ -14624,7 +14640,7 @@
       <c r="B220" t="s">
         <v>147</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D220">
@@ -14680,7 +14696,7 @@
       <c r="B221" t="s">
         <v>151</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D221">
@@ -14733,7 +14749,7 @@
       <c r="B222" t="s">
         <v>155</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D222">
@@ -14782,14 +14798,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>221</v>
       </c>
       <c r="B223" t="s">
         <v>160</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D223">
@@ -14841,14 +14857,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>222</v>
       </c>
       <c r="B224" t="s">
         <v>166</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D224">
@@ -14904,7 +14920,7 @@
       <c r="B225" t="s">
         <v>171</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D225">
@@ -14960,7 +14976,7 @@
       <c r="B226" t="s">
         <v>176</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D226">
@@ -15013,7 +15029,7 @@
       <c r="B227" t="s">
         <v>180</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D227">
@@ -15069,7 +15085,7 @@
       <c r="B228" t="s">
         <v>185</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D228">
@@ -15122,7 +15138,7 @@
       <c r="B229" t="s">
         <v>188</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D229">
@@ -15171,14 +15187,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>228</v>
       </c>
       <c r="B230" t="s">
         <v>193</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D230">
@@ -15227,14 +15243,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>229</v>
       </c>
       <c r="B231" t="s">
         <v>198</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D231">
@@ -15293,7 +15309,7 @@
       <c r="B232" t="s">
         <v>204</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D232">
@@ -15342,14 +15358,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>231</v>
       </c>
       <c r="B233" t="s">
         <v>209</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D233">
@@ -15398,14 +15414,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>232</v>
       </c>
       <c r="B234" t="s">
         <v>214</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D234">
@@ -15464,7 +15480,7 @@
       <c r="B235" t="s">
         <v>144</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D235">
@@ -15517,7 +15533,7 @@
       <c r="B236" t="s">
         <v>147</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D236">
@@ -15573,7 +15589,7 @@
       <c r="B237" t="s">
         <v>151</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C237" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D237">
@@ -15626,7 +15642,7 @@
       <c r="B238" t="s">
         <v>155</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C238" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D238">
@@ -15675,14 +15691,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>237</v>
       </c>
       <c r="B239" t="s">
         <v>160</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C239" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D239">
@@ -15734,14 +15750,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>238</v>
       </c>
       <c r="B240" t="s">
         <v>166</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C240" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D240">
@@ -15797,7 +15813,7 @@
       <c r="B241" t="s">
         <v>171</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C241" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D241">
@@ -15853,7 +15869,7 @@
       <c r="B242" t="s">
         <v>176</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C242" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D242">
@@ -15906,7 +15922,7 @@
       <c r="B243" t="s">
         <v>180</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C243" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D243">
@@ -15962,7 +15978,7 @@
       <c r="B244" t="s">
         <v>185</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D244">
@@ -16015,7 +16031,7 @@
       <c r="B245" t="s">
         <v>188</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D245">
@@ -16064,14 +16080,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>244</v>
       </c>
       <c r="B246" t="s">
         <v>193</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D246">
@@ -16120,14 +16136,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>245</v>
       </c>
       <c r="B247" t="s">
         <v>198</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D247">
@@ -16186,7 +16202,7 @@
       <c r="B248" t="s">
         <v>204</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C248" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D248">
@@ -16235,14 +16251,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>247</v>
       </c>
       <c r="B249" t="s">
         <v>209</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D249">
@@ -16291,14 +16307,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>248</v>
       </c>
       <c r="B250" t="s">
         <v>214</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D250">
@@ -16357,7 +16373,7 @@
       <c r="B251" t="s">
         <v>144</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D251">
@@ -16410,7 +16426,7 @@
       <c r="B252" t="s">
         <v>147</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D252">
@@ -16466,7 +16482,7 @@
       <c r="B253" t="s">
         <v>151</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D253">
@@ -16519,7 +16535,7 @@
       <c r="B254" t="s">
         <v>155</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D254">
@@ -16568,14 +16584,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>253</v>
       </c>
       <c r="B255" t="s">
         <v>160</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D255">
@@ -16627,14 +16643,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>254</v>
       </c>
       <c r="B256" t="s">
         <v>166</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C256" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D256">
@@ -16690,7 +16706,7 @@
       <c r="B257" t="s">
         <v>171</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D257">
@@ -16746,7 +16762,7 @@
       <c r="B258" t="s">
         <v>176</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C258" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D258">
@@ -16799,7 +16815,7 @@
       <c r="B259" t="s">
         <v>180</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D259">
@@ -16855,7 +16871,7 @@
       <c r="B260" t="s">
         <v>185</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C260" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D260">
@@ -16908,7 +16924,7 @@
       <c r="B261" t="s">
         <v>188</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C261" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D261">
@@ -16957,14 +16973,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>260</v>
       </c>
       <c r="B262" t="s">
         <v>193</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D262">
@@ -17013,14 +17029,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>261</v>
       </c>
       <c r="B263" t="s">
         <v>198</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C263" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D263">
@@ -17079,7 +17095,7 @@
       <c r="B264" t="s">
         <v>204</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D264">
@@ -17128,14 +17144,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>263</v>
       </c>
       <c r="B265" t="s">
         <v>209</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C265" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D265">
@@ -17184,14 +17200,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>264</v>
       </c>
       <c r="B266" t="s">
         <v>214</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C266" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D266">
@@ -17250,7 +17266,7 @@
       <c r="B267" t="s">
         <v>144</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C267" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D267">
@@ -17303,7 +17319,7 @@
       <c r="B268" t="s">
         <v>147</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C268" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D268">
@@ -17359,7 +17375,7 @@
       <c r="B269" t="s">
         <v>151</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D269">
@@ -17412,7 +17428,7 @@
       <c r="B270" t="s">
         <v>155</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C270" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D270">
@@ -17461,14 +17477,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>269</v>
       </c>
       <c r="B271" t="s">
         <v>160</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C271" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D271">
@@ -17520,14 +17536,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>270</v>
       </c>
       <c r="B272" t="s">
         <v>166</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C272" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D272">
@@ -17583,7 +17599,7 @@
       <c r="B273" t="s">
         <v>171</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D273">
@@ -17639,7 +17655,7 @@
       <c r="B274" t="s">
         <v>176</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C274" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D274">
@@ -17692,7 +17708,7 @@
       <c r="B275" t="s">
         <v>180</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C275" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D275">
@@ -17748,7 +17764,7 @@
       <c r="B276" t="s">
         <v>185</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C276" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D276">
@@ -17801,7 +17817,7 @@
       <c r="B277" t="s">
         <v>188</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C277" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D277">
@@ -17850,14 +17866,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>276</v>
       </c>
       <c r="B278" t="s">
         <v>193</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C278" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D278">
@@ -17906,14 +17922,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>277</v>
       </c>
       <c r="B279" t="s">
         <v>198</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C279" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D279">
@@ -17972,7 +17988,7 @@
       <c r="B280" t="s">
         <v>204</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C280" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D280">
@@ -18021,14 +18037,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>279</v>
       </c>
       <c r="B281" t="s">
         <v>209</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C281" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D281">
@@ -18077,14 +18093,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>280</v>
       </c>
       <c r="B282" t="s">
         <v>214</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C282" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D282">
@@ -18143,7 +18159,7 @@
       <c r="B283" t="s">
         <v>144</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C283" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D283">
@@ -18196,7 +18212,7 @@
       <c r="B284" t="s">
         <v>147</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C284" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D284">
@@ -18252,7 +18268,7 @@
       <c r="B285" t="s">
         <v>151</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C285" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D285">
@@ -18305,7 +18321,7 @@
       <c r="B286" t="s">
         <v>155</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C286" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D286">
@@ -18354,14 +18370,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>285</v>
       </c>
       <c r="B287" t="s">
         <v>160</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C287" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D287">
@@ -18413,14 +18429,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>286</v>
       </c>
       <c r="B288" t="s">
         <v>166</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C288" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D288">
@@ -18476,7 +18492,7 @@
       <c r="B289" t="s">
         <v>171</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C289" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D289">
@@ -18532,7 +18548,7 @@
       <c r="B290" t="s">
         <v>176</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C290" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D290">
@@ -18585,7 +18601,7 @@
       <c r="B291" t="s">
         <v>180</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C291" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D291">
@@ -18641,7 +18657,7 @@
       <c r="B292" t="s">
         <v>185</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C292" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D292">
@@ -18694,7 +18710,7 @@
       <c r="B293" t="s">
         <v>188</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C293" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D293">
@@ -18743,14 +18759,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>292</v>
       </c>
       <c r="B294" t="s">
         <v>193</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C294" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D294">
@@ -18799,14 +18815,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>293</v>
       </c>
       <c r="B295" t="s">
         <v>198</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C295" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D295">
@@ -18865,7 +18881,7 @@
       <c r="B296" t="s">
         <v>204</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C296" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D296">
@@ -18914,14 +18930,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>295</v>
       </c>
       <c r="B297" t="s">
         <v>209</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C297" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D297">
@@ -18970,14 +18986,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>296</v>
       </c>
       <c r="B298" t="s">
         <v>214</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C298" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D298">
@@ -19036,7 +19052,7 @@
       <c r="B299" t="s">
         <v>144</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C299" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D299">
@@ -19089,7 +19105,7 @@
       <c r="B300" t="s">
         <v>147</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C300" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D300">
@@ -19145,7 +19161,7 @@
       <c r="B301" t="s">
         <v>151</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C301" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D301">
@@ -19198,7 +19214,7 @@
       <c r="B302" t="s">
         <v>155</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C302" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D302">
@@ -19247,14 +19263,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>301</v>
       </c>
       <c r="B303" t="s">
         <v>160</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C303" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D303">
@@ -19306,14 +19322,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>302</v>
       </c>
       <c r="B304" t="s">
         <v>166</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C304" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D304">
@@ -19369,7 +19385,7 @@
       <c r="B305" t="s">
         <v>171</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C305" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D305">
@@ -19425,7 +19441,7 @@
       <c r="B306" t="s">
         <v>176</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C306" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D306">
@@ -19478,7 +19494,7 @@
       <c r="B307" t="s">
         <v>180</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C307" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D307">
@@ -19534,7 +19550,7 @@
       <c r="B308" t="s">
         <v>185</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C308" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D308">
@@ -19587,7 +19603,7 @@
       <c r="B309" t="s">
         <v>188</v>
       </c>
-      <c r="C309" t="s">
+      <c r="C309" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D309">
@@ -19636,14 +19652,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>308</v>
       </c>
       <c r="B310" t="s">
         <v>193</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C310" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D310">
@@ -19692,14 +19708,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>309</v>
       </c>
       <c r="B311" t="s">
         <v>198</v>
       </c>
-      <c r="C311" t="s">
+      <c r="C311" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D311">
@@ -19758,7 +19774,7 @@
       <c r="B312" t="s">
         <v>204</v>
       </c>
-      <c r="C312" t="s">
+      <c r="C312" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D312">
@@ -19807,14 +19823,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>311</v>
       </c>
       <c r="B313" t="s">
         <v>209</v>
       </c>
-      <c r="C313" t="s">
+      <c r="C313" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D313">
@@ -19863,14 +19879,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>312</v>
       </c>
       <c r="B314" t="s">
         <v>214</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C314" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D314">
@@ -19929,7 +19945,7 @@
       <c r="B315" t="s">
         <v>144</v>
       </c>
-      <c r="C315" t="s">
+      <c r="C315" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D315">
@@ -19982,7 +19998,7 @@
       <c r="B316" t="s">
         <v>147</v>
       </c>
-      <c r="C316" t="s">
+      <c r="C316" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D316">
@@ -20038,7 +20054,7 @@
       <c r="B317" t="s">
         <v>151</v>
       </c>
-      <c r="C317" t="s">
+      <c r="C317" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D317">
@@ -20091,7 +20107,7 @@
       <c r="B318" t="s">
         <v>155</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C318" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D318">
@@ -20140,14 +20156,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>317</v>
       </c>
       <c r="B319" t="s">
         <v>160</v>
       </c>
-      <c r="C319" t="s">
+      <c r="C319" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D319">
@@ -20199,14 +20215,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>318</v>
       </c>
       <c r="B320" t="s">
         <v>166</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C320" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D320">
@@ -20262,7 +20278,7 @@
       <c r="B321" t="s">
         <v>171</v>
       </c>
-      <c r="C321" t="s">
+      <c r="C321" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D321">
@@ -20318,7 +20334,7 @@
       <c r="B322" t="s">
         <v>176</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C322" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D322">
@@ -20371,7 +20387,7 @@
       <c r="B323" t="s">
         <v>180</v>
       </c>
-      <c r="C323" t="s">
+      <c r="C323" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D323">
@@ -20427,7 +20443,7 @@
       <c r="B324" t="s">
         <v>185</v>
       </c>
-      <c r="C324" t="s">
+      <c r="C324" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D324">
@@ -20480,7 +20496,7 @@
       <c r="B325" t="s">
         <v>188</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C325" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D325">
@@ -20529,14 +20545,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>324</v>
       </c>
       <c r="B326" t="s">
         <v>193</v>
       </c>
-      <c r="C326" t="s">
+      <c r="C326" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D326">
@@ -20585,14 +20601,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>325</v>
       </c>
       <c r="B327" t="s">
         <v>198</v>
       </c>
-      <c r="C327" t="s">
+      <c r="C327" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D327">
@@ -20651,7 +20667,7 @@
       <c r="B328" t="s">
         <v>204</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C328" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D328">
@@ -20700,14 +20716,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>327</v>
       </c>
       <c r="B329" t="s">
         <v>209</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C329" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D329">
@@ -20756,14 +20772,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>328</v>
       </c>
       <c r="B330" t="s">
         <v>214</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C330" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D330">
@@ -20822,7 +20838,7 @@
       <c r="B331" t="s">
         <v>144</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C331" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D331">
@@ -20875,7 +20891,7 @@
       <c r="B332" t="s">
         <v>147</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C332" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D332">
@@ -20931,7 +20947,7 @@
       <c r="B333" t="s">
         <v>151</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C333" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D333">
@@ -20984,7 +21000,7 @@
       <c r="B334" t="s">
         <v>155</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C334" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D334">
@@ -21033,14 +21049,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>333</v>
       </c>
       <c r="B335" t="s">
         <v>160</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C335" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D335">
@@ -21092,14 +21108,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>334</v>
       </c>
       <c r="B336" t="s">
         <v>166</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C336" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D336">
@@ -21155,7 +21171,7 @@
       <c r="B337" t="s">
         <v>171</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C337" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D337">
@@ -21211,7 +21227,7 @@
       <c r="B338" t="s">
         <v>176</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C338" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D338">
@@ -21264,7 +21280,7 @@
       <c r="B339" t="s">
         <v>180</v>
       </c>
-      <c r="C339" t="s">
+      <c r="C339" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D339">
@@ -21320,7 +21336,7 @@
       <c r="B340" t="s">
         <v>185</v>
       </c>
-      <c r="C340" t="s">
+      <c r="C340" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D340">
@@ -21373,7 +21389,7 @@
       <c r="B341" t="s">
         <v>188</v>
       </c>
-      <c r="C341" t="s">
+      <c r="C341" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D341">
@@ -21422,14 +21438,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>340</v>
       </c>
       <c r="B342" t="s">
         <v>193</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C342" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D342">
@@ -21478,14 +21494,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>341</v>
       </c>
       <c r="B343" t="s">
         <v>198</v>
       </c>
-      <c r="C343" t="s">
+      <c r="C343" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D343">
@@ -21544,7 +21560,7 @@
       <c r="B344" t="s">
         <v>204</v>
       </c>
-      <c r="C344" t="s">
+      <c r="C344" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D344">
@@ -21593,14 +21609,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>343</v>
       </c>
       <c r="B345" t="s">
         <v>209</v>
       </c>
-      <c r="C345" t="s">
+      <c r="C345" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D345">
@@ -21649,14 +21665,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>344</v>
       </c>
       <c r="B346" t="s">
         <v>214</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C346" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D346">
@@ -21715,7 +21731,7 @@
       <c r="B347" t="s">
         <v>144</v>
       </c>
-      <c r="C347" t="s">
+      <c r="C347" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D347">
@@ -21768,7 +21784,7 @@
       <c r="B348" t="s">
         <v>147</v>
       </c>
-      <c r="C348" t="s">
+      <c r="C348" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D348">
@@ -21824,7 +21840,7 @@
       <c r="B349" t="s">
         <v>151</v>
       </c>
-      <c r="C349" t="s">
+      <c r="C349" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D349">
@@ -21877,7 +21893,7 @@
       <c r="B350" t="s">
         <v>155</v>
       </c>
-      <c r="C350" t="s">
+      <c r="C350" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D350">
@@ -21926,14 +21942,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>349</v>
       </c>
       <c r="B351" t="s">
         <v>160</v>
       </c>
-      <c r="C351" t="s">
+      <c r="C351" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D351">
@@ -21985,14 +22001,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>350</v>
       </c>
       <c r="B352" t="s">
         <v>166</v>
       </c>
-      <c r="C352" t="s">
+      <c r="C352" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D352">
@@ -22048,7 +22064,7 @@
       <c r="B353" t="s">
         <v>171</v>
       </c>
-      <c r="C353" t="s">
+      <c r="C353" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D353">
@@ -22104,7 +22120,7 @@
       <c r="B354" t="s">
         <v>176</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C354" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D354">
@@ -22157,7 +22173,7 @@
       <c r="B355" t="s">
         <v>180</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C355" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D355">
@@ -22213,7 +22229,7 @@
       <c r="B356" t="s">
         <v>185</v>
       </c>
-      <c r="C356" t="s">
+      <c r="C356" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D356">
@@ -22266,7 +22282,7 @@
       <c r="B357" t="s">
         <v>188</v>
       </c>
-      <c r="C357" t="s">
+      <c r="C357" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D357">
@@ -22315,14 +22331,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>356</v>
       </c>
       <c r="B358" t="s">
         <v>193</v>
       </c>
-      <c r="C358" t="s">
+      <c r="C358" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D358">
@@ -22371,14 +22387,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>357</v>
       </c>
       <c r="B359" t="s">
         <v>198</v>
       </c>
-      <c r="C359" t="s">
+      <c r="C359" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D359">
@@ -22437,7 +22453,7 @@
       <c r="B360" t="s">
         <v>204</v>
       </c>
-      <c r="C360" t="s">
+      <c r="C360" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D360">
@@ -22486,14 +22502,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>359</v>
       </c>
       <c r="B361" t="s">
         <v>209</v>
       </c>
-      <c r="C361" t="s">
+      <c r="C361" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D361">
@@ -22542,14 +22558,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>360</v>
       </c>
       <c r="B362" t="s">
         <v>214</v>
       </c>
-      <c r="C362" t="s">
+      <c r="C362" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D362">
@@ -22608,7 +22624,7 @@
       <c r="B363" t="s">
         <v>144</v>
       </c>
-      <c r="C363" t="s">
+      <c r="C363" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D363">
@@ -22661,7 +22677,7 @@
       <c r="B364" t="s">
         <v>147</v>
       </c>
-      <c r="C364" t="s">
+      <c r="C364" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D364">
@@ -22717,7 +22733,7 @@
       <c r="B365" t="s">
         <v>151</v>
       </c>
-      <c r="C365" t="s">
+      <c r="C365" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D365">
@@ -22770,7 +22786,7 @@
       <c r="B366" t="s">
         <v>155</v>
       </c>
-      <c r="C366" t="s">
+      <c r="C366" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D366">
@@ -22819,14 +22835,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>365</v>
       </c>
       <c r="B367" t="s">
         <v>160</v>
       </c>
-      <c r="C367" t="s">
+      <c r="C367" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D367">
@@ -22878,14 +22894,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>366</v>
       </c>
       <c r="B368" t="s">
         <v>166</v>
       </c>
-      <c r="C368" t="s">
+      <c r="C368" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D368">
@@ -22941,7 +22957,7 @@
       <c r="B369" t="s">
         <v>171</v>
       </c>
-      <c r="C369" t="s">
+      <c r="C369" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D369">
@@ -22997,7 +23013,7 @@
       <c r="B370" t="s">
         <v>176</v>
       </c>
-      <c r="C370" t="s">
+      <c r="C370" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D370">
@@ -23050,7 +23066,7 @@
       <c r="B371" t="s">
         <v>180</v>
       </c>
-      <c r="C371" t="s">
+      <c r="C371" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D371">
@@ -23106,7 +23122,7 @@
       <c r="B372" t="s">
         <v>185</v>
       </c>
-      <c r="C372" t="s">
+      <c r="C372" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D372">
@@ -23159,7 +23175,7 @@
       <c r="B373" t="s">
         <v>188</v>
       </c>
-      <c r="C373" t="s">
+      <c r="C373" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D373">
@@ -23208,14 +23224,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>372</v>
       </c>
       <c r="B374" t="s">
         <v>193</v>
       </c>
-      <c r="C374" t="s">
+      <c r="C374" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D374">
@@ -23264,14 +23280,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>373</v>
       </c>
       <c r="B375" t="s">
         <v>198</v>
       </c>
-      <c r="C375" t="s">
+      <c r="C375" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D375">
@@ -23330,7 +23346,7 @@
       <c r="B376" t="s">
         <v>204</v>
       </c>
-      <c r="C376" t="s">
+      <c r="C376" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D376">
@@ -23379,14 +23395,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>375</v>
       </c>
       <c r="B377" t="s">
         <v>209</v>
       </c>
-      <c r="C377" t="s">
+      <c r="C377" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D377">
@@ -23435,14 +23451,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>376</v>
       </c>
       <c r="B378" t="s">
         <v>214</v>
       </c>
-      <c r="C378" t="s">
+      <c r="C378" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D378">
@@ -23501,7 +23517,7 @@
       <c r="B379" t="s">
         <v>144</v>
       </c>
-      <c r="C379" t="s">
+      <c r="C379" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D379">
@@ -23554,7 +23570,7 @@
       <c r="B380" t="s">
         <v>147</v>
       </c>
-      <c r="C380" t="s">
+      <c r="C380" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D380">
@@ -23610,7 +23626,7 @@
       <c r="B381" t="s">
         <v>151</v>
       </c>
-      <c r="C381" t="s">
+      <c r="C381" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D381">
@@ -23663,7 +23679,7 @@
       <c r="B382" t="s">
         <v>155</v>
       </c>
-      <c r="C382" t="s">
+      <c r="C382" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D382">
@@ -23712,14 +23728,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>381</v>
       </c>
       <c r="B383" t="s">
         <v>160</v>
       </c>
-      <c r="C383" t="s">
+      <c r="C383" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D383">
@@ -23771,14 +23787,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>382</v>
       </c>
       <c r="B384" t="s">
         <v>166</v>
       </c>
-      <c r="C384" t="s">
+      <c r="C384" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D384">
@@ -23834,7 +23850,7 @@
       <c r="B385" t="s">
         <v>171</v>
       </c>
-      <c r="C385" t="s">
+      <c r="C385" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D385">
@@ -23890,7 +23906,7 @@
       <c r="B386" t="s">
         <v>176</v>
       </c>
-      <c r="C386" t="s">
+      <c r="C386" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D386">
@@ -23943,7 +23959,7 @@
       <c r="B387" t="s">
         <v>180</v>
       </c>
-      <c r="C387" t="s">
+      <c r="C387" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D387">
@@ -23999,7 +24015,7 @@
       <c r="B388" t="s">
         <v>185</v>
       </c>
-      <c r="C388" t="s">
+      <c r="C388" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D388">
@@ -24052,7 +24068,7 @@
       <c r="B389" t="s">
         <v>188</v>
       </c>
-      <c r="C389" t="s">
+      <c r="C389" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D389">
@@ -24101,14 +24117,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>388</v>
       </c>
       <c r="B390" t="s">
         <v>193</v>
       </c>
-      <c r="C390" t="s">
+      <c r="C390" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D390">
@@ -24157,14 +24173,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>389</v>
       </c>
       <c r="B391" t="s">
         <v>198</v>
       </c>
-      <c r="C391" t="s">
+      <c r="C391" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D391">
@@ -24223,7 +24239,7 @@
       <c r="B392" t="s">
         <v>204</v>
       </c>
-      <c r="C392" t="s">
+      <c r="C392" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D392">
@@ -24272,14 +24288,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>391</v>
       </c>
       <c r="B393" t="s">
         <v>209</v>
       </c>
-      <c r="C393" t="s">
+      <c r="C393" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D393">
@@ -24328,14 +24344,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>392</v>
       </c>
       <c r="B394" t="s">
         <v>214</v>
       </c>
-      <c r="C394" t="s">
+      <c r="C394" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D394">
@@ -24394,7 +24410,7 @@
       <c r="B395" t="s">
         <v>144</v>
       </c>
-      <c r="C395" t="s">
+      <c r="C395" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D395">
@@ -24447,7 +24463,7 @@
       <c r="B396" t="s">
         <v>147</v>
       </c>
-      <c r="C396" t="s">
+      <c r="C396" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D396">
@@ -24503,7 +24519,7 @@
       <c r="B397" t="s">
         <v>151</v>
       </c>
-      <c r="C397" t="s">
+      <c r="C397" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D397">
@@ -24556,7 +24572,7 @@
       <c r="B398" t="s">
         <v>155</v>
       </c>
-      <c r="C398" t="s">
+      <c r="C398" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D398">
@@ -24605,14 +24621,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>397</v>
       </c>
       <c r="B399" t="s">
         <v>160</v>
       </c>
-      <c r="C399" t="s">
+      <c r="C399" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D399">
@@ -24664,14 +24680,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>398</v>
       </c>
       <c r="B400" t="s">
         <v>166</v>
       </c>
-      <c r="C400" t="s">
+      <c r="C400" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D400">
@@ -24727,7 +24743,7 @@
       <c r="B401" t="s">
         <v>171</v>
       </c>
-      <c r="C401" t="s">
+      <c r="C401" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D401">
@@ -24783,7 +24799,7 @@
       <c r="B402" t="s">
         <v>176</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C402" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D402">
@@ -24836,7 +24852,7 @@
       <c r="B403" t="s">
         <v>180</v>
       </c>
-      <c r="C403" t="s">
+      <c r="C403" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D403">
@@ -24892,7 +24908,7 @@
       <c r="B404" t="s">
         <v>185</v>
       </c>
-      <c r="C404" t="s">
+      <c r="C404" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D404">
@@ -24945,7 +24961,7 @@
       <c r="B405" t="s">
         <v>188</v>
       </c>
-      <c r="C405" t="s">
+      <c r="C405" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D405">
@@ -24994,14 +25010,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>404</v>
       </c>
       <c r="B406" t="s">
         <v>193</v>
       </c>
-      <c r="C406" t="s">
+      <c r="C406" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D406">
@@ -25050,14 +25066,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>405</v>
       </c>
       <c r="B407" t="s">
         <v>198</v>
       </c>
-      <c r="C407" t="s">
+      <c r="C407" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D407">
@@ -25116,7 +25132,7 @@
       <c r="B408" t="s">
         <v>204</v>
       </c>
-      <c r="C408" t="s">
+      <c r="C408" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D408">
@@ -25165,14 +25181,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>407</v>
       </c>
       <c r="B409" t="s">
         <v>209</v>
       </c>
-      <c r="C409" t="s">
+      <c r="C409" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D409">
@@ -25221,14 +25237,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>408</v>
       </c>
       <c r="B410" t="s">
         <v>214</v>
       </c>
-      <c r="C410" t="s">
+      <c r="C410" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D410">
@@ -25287,7 +25303,7 @@
       <c r="B411" t="s">
         <v>144</v>
       </c>
-      <c r="C411" t="s">
+      <c r="C411" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D411">
@@ -25340,7 +25356,7 @@
       <c r="B412" t="s">
         <v>147</v>
       </c>
-      <c r="C412" t="s">
+      <c r="C412" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D412">
@@ -25396,7 +25412,7 @@
       <c r="B413" t="s">
         <v>151</v>
       </c>
-      <c r="C413" t="s">
+      <c r="C413" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D413">
@@ -25449,7 +25465,7 @@
       <c r="B414" t="s">
         <v>155</v>
       </c>
-      <c r="C414" t="s">
+      <c r="C414" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D414">
@@ -25498,14 +25514,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>413</v>
       </c>
       <c r="B415" t="s">
         <v>160</v>
       </c>
-      <c r="C415" t="s">
+      <c r="C415" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D415">
@@ -25557,14 +25573,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>414</v>
       </c>
       <c r="B416" t="s">
         <v>166</v>
       </c>
-      <c r="C416" t="s">
+      <c r="C416" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D416">
@@ -25620,7 +25636,7 @@
       <c r="B417" t="s">
         <v>171</v>
       </c>
-      <c r="C417" t="s">
+      <c r="C417" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D417">
@@ -25676,7 +25692,7 @@
       <c r="B418" t="s">
         <v>176</v>
       </c>
-      <c r="C418" t="s">
+      <c r="C418" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D418">
@@ -25729,7 +25745,7 @@
       <c r="B419" t="s">
         <v>180</v>
       </c>
-      <c r="C419" t="s">
+      <c r="C419" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D419">
@@ -25785,7 +25801,7 @@
       <c r="B420" t="s">
         <v>185</v>
       </c>
-      <c r="C420" t="s">
+      <c r="C420" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D420">
@@ -25838,7 +25854,7 @@
       <c r="B421" t="s">
         <v>188</v>
       </c>
-      <c r="C421" t="s">
+      <c r="C421" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D421">
@@ -25887,14 +25903,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>420</v>
       </c>
       <c r="B422" t="s">
         <v>193</v>
       </c>
-      <c r="C422" t="s">
+      <c r="C422" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D422">
@@ -25943,14 +25959,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>421</v>
       </c>
       <c r="B423" t="s">
         <v>198</v>
       </c>
-      <c r="C423" t="s">
+      <c r="C423" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D423">
@@ -26009,7 +26025,7 @@
       <c r="B424" t="s">
         <v>204</v>
       </c>
-      <c r="C424" t="s">
+      <c r="C424" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D424">
@@ -26058,14 +26074,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>423</v>
       </c>
       <c r="B425" t="s">
         <v>209</v>
       </c>
-      <c r="C425" t="s">
+      <c r="C425" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D425">
@@ -26114,14 +26130,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>424</v>
       </c>
       <c r="B426" t="s">
         <v>214</v>
       </c>
-      <c r="C426" t="s">
+      <c r="C426" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D426">
@@ -26180,7 +26196,7 @@
       <c r="B427" t="s">
         <v>144</v>
       </c>
-      <c r="C427" t="s">
+      <c r="C427" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D427">
@@ -26233,7 +26249,7 @@
       <c r="B428" t="s">
         <v>147</v>
       </c>
-      <c r="C428" t="s">
+      <c r="C428" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D428">
@@ -26289,7 +26305,7 @@
       <c r="B429" t="s">
         <v>151</v>
       </c>
-      <c r="C429" t="s">
+      <c r="C429" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D429">
@@ -26342,7 +26358,7 @@
       <c r="B430" t="s">
         <v>155</v>
       </c>
-      <c r="C430" t="s">
+      <c r="C430" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D430">
@@ -26391,14 +26407,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>429</v>
       </c>
       <c r="B431" t="s">
         <v>160</v>
       </c>
-      <c r="C431" t="s">
+      <c r="C431" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D431">
@@ -26450,14 +26466,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>430</v>
       </c>
       <c r="B432" t="s">
         <v>166</v>
       </c>
-      <c r="C432" t="s">
+      <c r="C432" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D432">
@@ -26513,7 +26529,7 @@
       <c r="B433" t="s">
         <v>171</v>
       </c>
-      <c r="C433" t="s">
+      <c r="C433" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D433">
@@ -26569,7 +26585,7 @@
       <c r="B434" t="s">
         <v>176</v>
       </c>
-      <c r="C434" t="s">
+      <c r="C434" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D434">
@@ -26622,7 +26638,7 @@
       <c r="B435" t="s">
         <v>180</v>
       </c>
-      <c r="C435" t="s">
+      <c r="C435" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D435">
@@ -26678,7 +26694,7 @@
       <c r="B436" t="s">
         <v>185</v>
       </c>
-      <c r="C436" t="s">
+      <c r="C436" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D436">
@@ -26731,7 +26747,7 @@
       <c r="B437" t="s">
         <v>188</v>
       </c>
-      <c r="C437" t="s">
+      <c r="C437" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D437">
@@ -26780,14 +26796,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>436</v>
       </c>
       <c r="B438" t="s">
         <v>193</v>
       </c>
-      <c r="C438" t="s">
+      <c r="C438" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D438">
@@ -26836,14 +26852,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>437</v>
       </c>
       <c r="B439" t="s">
         <v>198</v>
       </c>
-      <c r="C439" t="s">
+      <c r="C439" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D439">
@@ -26902,7 +26918,7 @@
       <c r="B440" t="s">
         <v>204</v>
       </c>
-      <c r="C440" t="s">
+      <c r="C440" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D440">
@@ -26951,14 +26967,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>439</v>
       </c>
       <c r="B441" t="s">
         <v>209</v>
       </c>
-      <c r="C441" t="s">
+      <c r="C441" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D441">
@@ -27007,14 +27023,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>440</v>
       </c>
       <c r="B442" t="s">
         <v>214</v>
       </c>
-      <c r="C442" t="s">
+      <c r="C442" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D442">
@@ -27073,7 +27089,7 @@
       <c r="B443" t="s">
         <v>144</v>
       </c>
-      <c r="C443" t="s">
+      <c r="C443" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D443">
@@ -27126,7 +27142,7 @@
       <c r="B444" t="s">
         <v>147</v>
       </c>
-      <c r="C444" t="s">
+      <c r="C444" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D444">
@@ -27182,7 +27198,7 @@
       <c r="B445" t="s">
         <v>151</v>
       </c>
-      <c r="C445" t="s">
+      <c r="C445" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D445">
@@ -27235,7 +27251,7 @@
       <c r="B446" t="s">
         <v>155</v>
       </c>
-      <c r="C446" t="s">
+      <c r="C446" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D446">
@@ -27284,14 +27300,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>445</v>
       </c>
       <c r="B447" t="s">
         <v>160</v>
       </c>
-      <c r="C447" t="s">
+      <c r="C447" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D447">
@@ -27343,14 +27359,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>446</v>
       </c>
       <c r="B448" t="s">
         <v>166</v>
       </c>
-      <c r="C448" t="s">
+      <c r="C448" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D448">
@@ -27406,7 +27422,7 @@
       <c r="B449" t="s">
         <v>171</v>
       </c>
-      <c r="C449" t="s">
+      <c r="C449" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D449">
@@ -27462,7 +27478,7 @@
       <c r="B450" t="s">
         <v>176</v>
       </c>
-      <c r="C450" t="s">
+      <c r="C450" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D450">
@@ -27515,7 +27531,7 @@
       <c r="B451" t="s">
         <v>180</v>
       </c>
-      <c r="C451" t="s">
+      <c r="C451" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D451">
@@ -27571,7 +27587,7 @@
       <c r="B452" t="s">
         <v>185</v>
       </c>
-      <c r="C452" t="s">
+      <c r="C452" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D452">
@@ -27624,7 +27640,7 @@
       <c r="B453" t="s">
         <v>188</v>
       </c>
-      <c r="C453" t="s">
+      <c r="C453" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D453">
@@ -27673,14 +27689,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>452</v>
       </c>
       <c r="B454" t="s">
         <v>193</v>
       </c>
-      <c r="C454" t="s">
+      <c r="C454" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D454">
@@ -27729,14 +27745,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>453</v>
       </c>
       <c r="B455" t="s">
         <v>198</v>
       </c>
-      <c r="C455" t="s">
+      <c r="C455" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D455">
@@ -27795,7 +27811,7 @@
       <c r="B456" t="s">
         <v>204</v>
       </c>
-      <c r="C456" t="s">
+      <c r="C456" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D456">
@@ -27844,14 +27860,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>455</v>
       </c>
       <c r="B457" t="s">
         <v>209</v>
       </c>
-      <c r="C457" t="s">
+      <c r="C457" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D457">
@@ -27900,14 +27916,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>456</v>
       </c>
       <c r="B458" t="s">
         <v>214</v>
       </c>
-      <c r="C458" t="s">
+      <c r="C458" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D458">
@@ -27966,7 +27982,7 @@
       <c r="B459" t="s">
         <v>144</v>
       </c>
-      <c r="C459" t="s">
+      <c r="C459" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D459">
@@ -28019,7 +28035,7 @@
       <c r="B460" t="s">
         <v>147</v>
       </c>
-      <c r="C460" t="s">
+      <c r="C460" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D460">
@@ -28075,7 +28091,7 @@
       <c r="B461" t="s">
         <v>151</v>
       </c>
-      <c r="C461" t="s">
+      <c r="C461" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D461">
@@ -28128,7 +28144,7 @@
       <c r="B462" t="s">
         <v>155</v>
       </c>
-      <c r="C462" t="s">
+      <c r="C462" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D462">
@@ -28177,14 +28193,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>461</v>
       </c>
       <c r="B463" t="s">
         <v>160</v>
       </c>
-      <c r="C463" t="s">
+      <c r="C463" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D463">
@@ -28236,14 +28252,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>462</v>
       </c>
       <c r="B464" t="s">
         <v>166</v>
       </c>
-      <c r="C464" t="s">
+      <c r="C464" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D464">
@@ -28299,7 +28315,7 @@
       <c r="B465" t="s">
         <v>171</v>
       </c>
-      <c r="C465" t="s">
+      <c r="C465" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D465">
@@ -28355,7 +28371,7 @@
       <c r="B466" t="s">
         <v>176</v>
       </c>
-      <c r="C466" t="s">
+      <c r="C466" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D466">
@@ -28408,7 +28424,7 @@
       <c r="B467" t="s">
         <v>180</v>
       </c>
-      <c r="C467" t="s">
+      <c r="C467" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D467">
@@ -28464,7 +28480,7 @@
       <c r="B468" t="s">
         <v>185</v>
       </c>
-      <c r="C468" t="s">
+      <c r="C468" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D468">
@@ -28517,7 +28533,7 @@
       <c r="B469" t="s">
         <v>188</v>
       </c>
-      <c r="C469" t="s">
+      <c r="C469" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D469">
@@ -28566,14 +28582,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>468</v>
       </c>
       <c r="B470" t="s">
         <v>193</v>
       </c>
-      <c r="C470" t="s">
+      <c r="C470" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D470">
@@ -28622,14 +28638,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>469</v>
       </c>
       <c r="B471" t="s">
         <v>198</v>
       </c>
-      <c r="C471" t="s">
+      <c r="C471" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D471">
@@ -28688,7 +28704,7 @@
       <c r="B472" t="s">
         <v>204</v>
       </c>
-      <c r="C472" t="s">
+      <c r="C472" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D472">
@@ -28737,14 +28753,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>471</v>
       </c>
       <c r="B473" t="s">
         <v>209</v>
       </c>
-      <c r="C473" t="s">
+      <c r="C473" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D473">
@@ -28793,14 +28809,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>472</v>
       </c>
       <c r="B474" t="s">
         <v>214</v>
       </c>
-      <c r="C474" t="s">
+      <c r="C474" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D474">
@@ -28859,7 +28875,7 @@
       <c r="B475" t="s">
         <v>144</v>
       </c>
-      <c r="C475" t="s">
+      <c r="C475" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D475">
@@ -28912,7 +28928,7 @@
       <c r="B476" t="s">
         <v>147</v>
       </c>
-      <c r="C476" t="s">
+      <c r="C476" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D476">
@@ -28968,7 +28984,7 @@
       <c r="B477" t="s">
         <v>151</v>
       </c>
-      <c r="C477" t="s">
+      <c r="C477" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D477">
@@ -29021,7 +29037,7 @@
       <c r="B478" t="s">
         <v>155</v>
       </c>
-      <c r="C478" t="s">
+      <c r="C478" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D478">
@@ -29070,14 +29086,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>477</v>
       </c>
       <c r="B479" t="s">
         <v>160</v>
       </c>
-      <c r="C479" t="s">
+      <c r="C479" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D479">
@@ -29129,14 +29145,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>478</v>
       </c>
       <c r="B480" t="s">
         <v>166</v>
       </c>
-      <c r="C480" t="s">
+      <c r="C480" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D480">
@@ -29192,7 +29208,7 @@
       <c r="B481" t="s">
         <v>171</v>
       </c>
-      <c r="C481" t="s">
+      <c r="C481" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D481">
@@ -29248,7 +29264,7 @@
       <c r="B482" t="s">
         <v>176</v>
       </c>
-      <c r="C482" t="s">
+      <c r="C482" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D482">
@@ -29301,7 +29317,7 @@
       <c r="B483" t="s">
         <v>180</v>
       </c>
-      <c r="C483" t="s">
+      <c r="C483" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D483">
@@ -29357,7 +29373,7 @@
       <c r="B484" t="s">
         <v>185</v>
       </c>
-      <c r="C484" t="s">
+      <c r="C484" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D484">
@@ -29410,7 +29426,7 @@
       <c r="B485" t="s">
         <v>188</v>
       </c>
-      <c r="C485" t="s">
+      <c r="C485" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D485">
@@ -29459,14 +29475,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>484</v>
       </c>
       <c r="B486" t="s">
         <v>193</v>
       </c>
-      <c r="C486" t="s">
+      <c r="C486" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D486">
@@ -29515,14 +29531,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>485</v>
       </c>
       <c r="B487" t="s">
         <v>198</v>
       </c>
-      <c r="C487" t="s">
+      <c r="C487" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D487">
@@ -29581,7 +29597,7 @@
       <c r="B488" t="s">
         <v>204</v>
       </c>
-      <c r="C488" t="s">
+      <c r="C488" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D488">
@@ -29630,14 +29646,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>487</v>
       </c>
       <c r="B489" t="s">
         <v>209</v>
       </c>
-      <c r="C489" t="s">
+      <c r="C489" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D489">
@@ -29686,14 +29702,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>488</v>
       </c>
       <c r="B490" t="s">
         <v>214</v>
       </c>
-      <c r="C490" t="s">
+      <c r="C490" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D490">
@@ -29752,7 +29768,7 @@
       <c r="B491" t="s">
         <v>144</v>
       </c>
-      <c r="C491" t="s">
+      <c r="C491" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D491">
@@ -29805,7 +29821,7 @@
       <c r="B492" t="s">
         <v>147</v>
       </c>
-      <c r="C492" t="s">
+      <c r="C492" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D492">
@@ -29861,7 +29877,7 @@
       <c r="B493" t="s">
         <v>151</v>
       </c>
-      <c r="C493" t="s">
+      <c r="C493" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D493">
@@ -29914,7 +29930,7 @@
       <c r="B494" t="s">
         <v>155</v>
       </c>
-      <c r="C494" t="s">
+      <c r="C494" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D494">
@@ -29963,14 +29979,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>493</v>
       </c>
       <c r="B495" t="s">
         <v>160</v>
       </c>
-      <c r="C495" t="s">
+      <c r="C495" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D495">
@@ -30022,14 +30038,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>494</v>
       </c>
       <c r="B496" t="s">
         <v>166</v>
       </c>
-      <c r="C496" t="s">
+      <c r="C496" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D496">
@@ -30085,7 +30101,7 @@
       <c r="B497" t="s">
         <v>171</v>
       </c>
-      <c r="C497" t="s">
+      <c r="C497" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D497">
@@ -30141,7 +30157,7 @@
       <c r="B498" t="s">
         <v>176</v>
       </c>
-      <c r="C498" t="s">
+      <c r="C498" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D498">
@@ -30194,7 +30210,7 @@
       <c r="B499" t="s">
         <v>180</v>
       </c>
-      <c r="C499" t="s">
+      <c r="C499" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D499">
@@ -30250,7 +30266,7 @@
       <c r="B500" t="s">
         <v>185</v>
       </c>
-      <c r="C500" t="s">
+      <c r="C500" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D500">
@@ -30303,7 +30319,7 @@
       <c r="B501" t="s">
         <v>188</v>
       </c>
-      <c r="C501" t="s">
+      <c r="C501" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D501">
@@ -30352,14 +30368,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>500</v>
       </c>
       <c r="B502" t="s">
         <v>193</v>
       </c>
-      <c r="C502" t="s">
+      <c r="C502" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D502">
@@ -30408,14 +30424,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>501</v>
       </c>
       <c r="B503" t="s">
         <v>198</v>
       </c>
-      <c r="C503" t="s">
+      <c r="C503" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D503">
@@ -30474,7 +30490,7 @@
       <c r="B504" t="s">
         <v>204</v>
       </c>
-      <c r="C504" t="s">
+      <c r="C504" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D504">
@@ -30523,14 +30539,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>503</v>
       </c>
       <c r="B505" t="s">
         <v>209</v>
       </c>
-      <c r="C505" t="s">
+      <c r="C505" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D505">
@@ -30579,14 +30595,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>504</v>
       </c>
       <c r="B506" t="s">
         <v>214</v>
       </c>
-      <c r="C506" t="s">
+      <c r="C506" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D506">
@@ -30645,7 +30661,7 @@
       <c r="B507" t="s">
         <v>144</v>
       </c>
-      <c r="C507" t="s">
+      <c r="C507" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D507">
@@ -30698,7 +30714,7 @@
       <c r="B508" t="s">
         <v>147</v>
       </c>
-      <c r="C508" t="s">
+      <c r="C508" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D508">
@@ -30754,7 +30770,7 @@
       <c r="B509" t="s">
         <v>151</v>
       </c>
-      <c r="C509" t="s">
+      <c r="C509" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D509">
@@ -30807,7 +30823,7 @@
       <c r="B510" t="s">
         <v>155</v>
       </c>
-      <c r="C510" t="s">
+      <c r="C510" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D510">
@@ -30856,14 +30872,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>509</v>
       </c>
       <c r="B511" t="s">
         <v>160</v>
       </c>
-      <c r="C511" t="s">
+      <c r="C511" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D511">
@@ -30915,14 +30931,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>510</v>
       </c>
       <c r="B512" t="s">
         <v>166</v>
       </c>
-      <c r="C512" t="s">
+      <c r="C512" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D512">
@@ -30978,7 +30994,7 @@
       <c r="B513" t="s">
         <v>171</v>
       </c>
-      <c r="C513" t="s">
+      <c r="C513" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D513">
@@ -31034,7 +31050,7 @@
       <c r="B514" t="s">
         <v>176</v>
       </c>
-      <c r="C514" t="s">
+      <c r="C514" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D514">
@@ -31087,7 +31103,7 @@
       <c r="B515" t="s">
         <v>180</v>
       </c>
-      <c r="C515" t="s">
+      <c r="C515" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D515">
@@ -31143,7 +31159,7 @@
       <c r="B516" t="s">
         <v>185</v>
       </c>
-      <c r="C516" t="s">
+      <c r="C516" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D516">
@@ -31196,7 +31212,7 @@
       <c r="B517" t="s">
         <v>188</v>
       </c>
-      <c r="C517" t="s">
+      <c r="C517" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D517">
@@ -31245,14 +31261,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>516</v>
       </c>
       <c r="B518" t="s">
         <v>193</v>
       </c>
-      <c r="C518" t="s">
+      <c r="C518" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D518">
@@ -31301,14 +31317,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>517</v>
       </c>
       <c r="B519" t="s">
         <v>198</v>
       </c>
-      <c r="C519" t="s">
+      <c r="C519" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D519">
@@ -31367,7 +31383,7 @@
       <c r="B520" t="s">
         <v>204</v>
       </c>
-      <c r="C520" t="s">
+      <c r="C520" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D520">
@@ -31416,14 +31432,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>519</v>
       </c>
       <c r="B521" t="s">
         <v>209</v>
       </c>
-      <c r="C521" t="s">
+      <c r="C521" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D521">
@@ -31472,14 +31488,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>520</v>
       </c>
       <c r="B522" t="s">
         <v>214</v>
       </c>
-      <c r="C522" t="s">
+      <c r="C522" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D522">
@@ -31538,7 +31554,7 @@
       <c r="B523" t="s">
         <v>144</v>
       </c>
-      <c r="C523" t="s">
+      <c r="C523" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D523">
@@ -31591,7 +31607,7 @@
       <c r="B524" t="s">
         <v>147</v>
       </c>
-      <c r="C524" t="s">
+      <c r="C524" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D524">
@@ -31647,7 +31663,7 @@
       <c r="B525" t="s">
         <v>151</v>
       </c>
-      <c r="C525" t="s">
+      <c r="C525" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D525">
@@ -31700,7 +31716,7 @@
       <c r="B526" t="s">
         <v>155</v>
       </c>
-      <c r="C526" t="s">
+      <c r="C526" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D526">
@@ -31749,14 +31765,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>525</v>
       </c>
       <c r="B527" t="s">
         <v>160</v>
       </c>
-      <c r="C527" t="s">
+      <c r="C527" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D527">
@@ -31808,14 +31824,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>526</v>
       </c>
       <c r="B528" t="s">
         <v>166</v>
       </c>
-      <c r="C528" t="s">
+      <c r="C528" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D528">
@@ -31871,7 +31887,7 @@
       <c r="B529" t="s">
         <v>171</v>
       </c>
-      <c r="C529" t="s">
+      <c r="C529" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D529">
@@ -31927,7 +31943,7 @@
       <c r="B530" t="s">
         <v>176</v>
       </c>
-      <c r="C530" t="s">
+      <c r="C530" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D530">
@@ -31980,7 +31996,7 @@
       <c r="B531" t="s">
         <v>180</v>
       </c>
-      <c r="C531" t="s">
+      <c r="C531" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D531">
@@ -32036,7 +32052,7 @@
       <c r="B532" t="s">
         <v>185</v>
       </c>
-      <c r="C532" t="s">
+      <c r="C532" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D532">
@@ -32089,7 +32105,7 @@
       <c r="B533" t="s">
         <v>188</v>
       </c>
-      <c r="C533" t="s">
+      <c r="C533" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D533">
@@ -32138,14 +32154,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="534" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>532</v>
       </c>
       <c r="B534" t="s">
         <v>193</v>
       </c>
-      <c r="C534" t="s">
+      <c r="C534" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D534">
@@ -32194,14 +32210,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="535" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>533</v>
       </c>
       <c r="B535" t="s">
         <v>198</v>
       </c>
-      <c r="C535" t="s">
+      <c r="C535" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D535">
@@ -32260,7 +32276,7 @@
       <c r="B536" t="s">
         <v>204</v>
       </c>
-      <c r="C536" t="s">
+      <c r="C536" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D536">
@@ -32309,14 +32325,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>535</v>
       </c>
       <c r="B537" t="s">
         <v>209</v>
       </c>
-      <c r="C537" t="s">
+      <c r="C537" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D537">
@@ -32365,14 +32381,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="538" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>536</v>
       </c>
       <c r="B538" t="s">
         <v>214</v>
       </c>
-      <c r="C538" t="s">
+      <c r="C538" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D538">
@@ -32431,7 +32447,7 @@
       <c r="B539" t="s">
         <v>144</v>
       </c>
-      <c r="C539" t="s">
+      <c r="C539" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D539">
@@ -32484,7 +32500,7 @@
       <c r="B540" t="s">
         <v>147</v>
       </c>
-      <c r="C540" t="s">
+      <c r="C540" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D540">
@@ -32540,7 +32556,7 @@
       <c r="B541" t="s">
         <v>151</v>
       </c>
-      <c r="C541" t="s">
+      <c r="C541" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D541">
@@ -32593,7 +32609,7 @@
       <c r="B542" t="s">
         <v>155</v>
       </c>
-      <c r="C542" t="s">
+      <c r="C542" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D542">
@@ -32642,14 +32658,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="543" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>541</v>
       </c>
       <c r="B543" t="s">
         <v>160</v>
       </c>
-      <c r="C543" t="s">
+      <c r="C543" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D543">
@@ -32701,14 +32717,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="544" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>542</v>
       </c>
       <c r="B544" t="s">
         <v>166</v>
       </c>
-      <c r="C544" t="s">
+      <c r="C544" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D544">
@@ -32764,7 +32780,7 @@
       <c r="B545" t="s">
         <v>171</v>
       </c>
-      <c r="C545" t="s">
+      <c r="C545" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D545">
@@ -32820,7 +32836,7 @@
       <c r="B546" t="s">
         <v>176</v>
       </c>
-      <c r="C546" t="s">
+      <c r="C546" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D546">
@@ -32873,7 +32889,7 @@
       <c r="B547" t="s">
         <v>180</v>
       </c>
-      <c r="C547" t="s">
+      <c r="C547" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D547">
@@ -32929,7 +32945,7 @@
       <c r="B548" t="s">
         <v>185</v>
       </c>
-      <c r="C548" t="s">
+      <c r="C548" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D548">
@@ -32982,7 +32998,7 @@
       <c r="B549" t="s">
         <v>188</v>
       </c>
-      <c r="C549" t="s">
+      <c r="C549" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D549">
@@ -33031,14 +33047,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="550" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>548</v>
       </c>
       <c r="B550" t="s">
         <v>193</v>
       </c>
-      <c r="C550" t="s">
+      <c r="C550" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D550">
@@ -33087,14 +33103,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="551" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>549</v>
       </c>
       <c r="B551" t="s">
         <v>198</v>
       </c>
-      <c r="C551" t="s">
+      <c r="C551" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D551">
@@ -33153,7 +33169,7 @@
       <c r="B552" t="s">
         <v>204</v>
       </c>
-      <c r="C552" t="s">
+      <c r="C552" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D552">
@@ -33202,14 +33218,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>551</v>
       </c>
       <c r="B553" t="s">
         <v>209</v>
       </c>
-      <c r="C553" t="s">
+      <c r="C553" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D553">
@@ -33258,14 +33274,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="554" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>552</v>
       </c>
       <c r="B554" t="s">
         <v>214</v>
       </c>
-      <c r="C554" t="s">
+      <c r="C554" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D554">
@@ -33324,7 +33340,7 @@
       <c r="B555" t="s">
         <v>144</v>
       </c>
-      <c r="C555" t="s">
+      <c r="C555" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D555">
@@ -33377,7 +33393,7 @@
       <c r="B556" t="s">
         <v>147</v>
       </c>
-      <c r="C556" t="s">
+      <c r="C556" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D556">
@@ -33433,7 +33449,7 @@
       <c r="B557" t="s">
         <v>151</v>
       </c>
-      <c r="C557" t="s">
+      <c r="C557" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D557">
@@ -33486,7 +33502,7 @@
       <c r="B558" t="s">
         <v>155</v>
       </c>
-      <c r="C558" t="s">
+      <c r="C558" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D558">
@@ -33535,14 +33551,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="559" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>557</v>
       </c>
       <c r="B559" t="s">
         <v>160</v>
       </c>
-      <c r="C559" t="s">
+      <c r="C559" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D559">
@@ -33594,14 +33610,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="560" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>558</v>
       </c>
       <c r="B560" t="s">
         <v>166</v>
       </c>
-      <c r="C560" t="s">
+      <c r="C560" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D560">
@@ -33657,7 +33673,7 @@
       <c r="B561" t="s">
         <v>171</v>
       </c>
-      <c r="C561" t="s">
+      <c r="C561" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D561">
@@ -33713,7 +33729,7 @@
       <c r="B562" t="s">
         <v>176</v>
       </c>
-      <c r="C562" t="s">
+      <c r="C562" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D562">
@@ -33766,7 +33782,7 @@
       <c r="B563" t="s">
         <v>180</v>
       </c>
-      <c r="C563" t="s">
+      <c r="C563" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D563">
@@ -33822,7 +33838,7 @@
       <c r="B564" t="s">
         <v>185</v>
       </c>
-      <c r="C564" t="s">
+      <c r="C564" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D564">
@@ -33875,7 +33891,7 @@
       <c r="B565" t="s">
         <v>188</v>
       </c>
-      <c r="C565" t="s">
+      <c r="C565" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D565">
@@ -33924,14 +33940,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>564</v>
       </c>
       <c r="B566" t="s">
         <v>193</v>
       </c>
-      <c r="C566" t="s">
+      <c r="C566" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D566">
@@ -33980,14 +33996,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="567" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>565</v>
       </c>
       <c r="B567" t="s">
         <v>198</v>
       </c>
-      <c r="C567" t="s">
+      <c r="C567" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D567">
@@ -34046,7 +34062,7 @@
       <c r="B568" t="s">
         <v>204</v>
       </c>
-      <c r="C568" t="s">
+      <c r="C568" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D568">
@@ -34095,14 +34111,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>567</v>
       </c>
       <c r="B569" t="s">
         <v>209</v>
       </c>
-      <c r="C569" t="s">
+      <c r="C569" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D569">
@@ -34151,14 +34167,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="570" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>568</v>
       </c>
       <c r="B570" t="s">
         <v>214</v>
       </c>
-      <c r="C570" t="s">
+      <c r="C570" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D570">
@@ -34217,7 +34233,7 @@
       <c r="B571" t="s">
         <v>144</v>
       </c>
-      <c r="C571" t="s">
+      <c r="C571" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D571">
@@ -34270,7 +34286,7 @@
       <c r="B572" t="s">
         <v>147</v>
       </c>
-      <c r="C572" t="s">
+      <c r="C572" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D572">
@@ -34326,7 +34342,7 @@
       <c r="B573" t="s">
         <v>151</v>
       </c>
-      <c r="C573" t="s">
+      <c r="C573" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D573">
@@ -34379,7 +34395,7 @@
       <c r="B574" t="s">
         <v>155</v>
       </c>
-      <c r="C574" t="s">
+      <c r="C574" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D574">
@@ -34428,14 +34444,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="575" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>573</v>
       </c>
       <c r="B575" t="s">
         <v>160</v>
       </c>
-      <c r="C575" t="s">
+      <c r="C575" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D575">
@@ -34487,14 +34503,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>574</v>
       </c>
       <c r="B576" t="s">
         <v>166</v>
       </c>
-      <c r="C576" t="s">
+      <c r="C576" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D576">
@@ -34550,7 +34566,7 @@
       <c r="B577" t="s">
         <v>171</v>
       </c>
-      <c r="C577" t="s">
+      <c r="C577" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D577">
@@ -34606,7 +34622,7 @@
       <c r="B578" t="s">
         <v>176</v>
       </c>
-      <c r="C578" t="s">
+      <c r="C578" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D578">
@@ -34659,7 +34675,7 @@
       <c r="B579" t="s">
         <v>180</v>
       </c>
-      <c r="C579" t="s">
+      <c r="C579" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D579">
@@ -34715,7 +34731,7 @@
       <c r="B580" t="s">
         <v>185</v>
       </c>
-      <c r="C580" t="s">
+      <c r="C580" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D580">
@@ -34768,7 +34784,7 @@
       <c r="B581" t="s">
         <v>188</v>
       </c>
-      <c r="C581" t="s">
+      <c r="C581" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D581">
@@ -34817,14 +34833,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="582" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>580</v>
       </c>
       <c r="B582" t="s">
         <v>193</v>
       </c>
-      <c r="C582" t="s">
+      <c r="C582" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D582">
@@ -34873,14 +34889,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="583" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>581</v>
       </c>
       <c r="B583" t="s">
         <v>198</v>
       </c>
-      <c r="C583" t="s">
+      <c r="C583" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D583">
@@ -34939,7 +34955,7 @@
       <c r="B584" t="s">
         <v>204</v>
       </c>
-      <c r="C584" t="s">
+      <c r="C584" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D584">
@@ -34988,14 +35004,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>583</v>
       </c>
       <c r="B585" t="s">
         <v>209</v>
       </c>
-      <c r="C585" t="s">
+      <c r="C585" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D585">
@@ -35044,14 +35060,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="586" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>584</v>
       </c>
       <c r="B586" t="s">
         <v>214</v>
       </c>
-      <c r="C586" t="s">
+      <c r="C586" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D586">
@@ -35110,7 +35126,7 @@
       <c r="B587" t="s">
         <v>144</v>
       </c>
-      <c r="C587" t="s">
+      <c r="C587" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D587">
@@ -35163,7 +35179,7 @@
       <c r="B588" t="s">
         <v>147</v>
       </c>
-      <c r="C588" t="s">
+      <c r="C588" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D588">
@@ -35219,7 +35235,7 @@
       <c r="B589" t="s">
         <v>151</v>
       </c>
-      <c r="C589" t="s">
+      <c r="C589" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D589">
@@ -35272,7 +35288,7 @@
       <c r="B590" t="s">
         <v>155</v>
       </c>
-      <c r="C590" t="s">
+      <c r="C590" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D590">
@@ -35321,14 +35337,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="591" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>589</v>
       </c>
       <c r="B591" t="s">
         <v>160</v>
       </c>
-      <c r="C591" t="s">
+      <c r="C591" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D591">
@@ -35380,14 +35396,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="592" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>590</v>
       </c>
       <c r="B592" t="s">
         <v>166</v>
       </c>
-      <c r="C592" t="s">
+      <c r="C592" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D592">
@@ -35443,7 +35459,7 @@
       <c r="B593" t="s">
         <v>171</v>
       </c>
-      <c r="C593" t="s">
+      <c r="C593" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D593">
@@ -35499,7 +35515,7 @@
       <c r="B594" t="s">
         <v>176</v>
       </c>
-      <c r="C594" t="s">
+      <c r="C594" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D594">
@@ -35552,7 +35568,7 @@
       <c r="B595" t="s">
         <v>180</v>
       </c>
-      <c r="C595" t="s">
+      <c r="C595" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D595">
@@ -35608,7 +35624,7 @@
       <c r="B596" t="s">
         <v>185</v>
       </c>
-      <c r="C596" t="s">
+      <c r="C596" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D596">
@@ -35661,7 +35677,7 @@
       <c r="B597" t="s">
         <v>188</v>
       </c>
-      <c r="C597" t="s">
+      <c r="C597" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D597">
@@ -35710,14 +35726,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="598" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>596</v>
       </c>
       <c r="B598" t="s">
         <v>193</v>
       </c>
-      <c r="C598" t="s">
+      <c r="C598" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D598">
@@ -35766,14 +35782,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="599" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>597</v>
       </c>
       <c r="B599" t="s">
         <v>198</v>
       </c>
-      <c r="C599" t="s">
+      <c r="C599" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D599">
@@ -35832,7 +35848,7 @@
       <c r="B600" t="s">
         <v>204</v>
       </c>
-      <c r="C600" t="s">
+      <c r="C600" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D600">
@@ -35881,14 +35897,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>599</v>
       </c>
       <c r="B601" t="s">
         <v>209</v>
       </c>
-      <c r="C601" t="s">
+      <c r="C601" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D601">
@@ -35937,14 +35953,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="602" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>600</v>
       </c>
       <c r="B602" t="s">
         <v>214</v>
       </c>
-      <c r="C602" t="s">
+      <c r="C602" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D602">
@@ -36003,7 +36019,7 @@
       <c r="B603" t="s">
         <v>144</v>
       </c>
-      <c r="C603" t="s">
+      <c r="C603" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D603">
@@ -36056,7 +36072,7 @@
       <c r="B604" t="s">
         <v>147</v>
       </c>
-      <c r="C604" t="s">
+      <c r="C604" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D604">
@@ -36112,7 +36128,7 @@
       <c r="B605" t="s">
         <v>151</v>
       </c>
-      <c r="C605" t="s">
+      <c r="C605" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D605">
@@ -36165,7 +36181,7 @@
       <c r="B606" t="s">
         <v>155</v>
       </c>
-      <c r="C606" t="s">
+      <c r="C606" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D606">
@@ -36214,14 +36230,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="607" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>605</v>
       </c>
       <c r="B607" t="s">
         <v>160</v>
       </c>
-      <c r="C607" t="s">
+      <c r="C607" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D607">
@@ -36273,14 +36289,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="608" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>606</v>
       </c>
       <c r="B608" t="s">
         <v>166</v>
       </c>
-      <c r="C608" t="s">
+      <c r="C608" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D608">
@@ -36336,7 +36352,7 @@
       <c r="B609" t="s">
         <v>171</v>
       </c>
-      <c r="C609" t="s">
+      <c r="C609" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D609">
@@ -36392,7 +36408,7 @@
       <c r="B610" t="s">
         <v>176</v>
       </c>
-      <c r="C610" t="s">
+      <c r="C610" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D610">
@@ -36445,7 +36461,7 @@
       <c r="B611" t="s">
         <v>180</v>
       </c>
-      <c r="C611" t="s">
+      <c r="C611" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D611">
@@ -36501,7 +36517,7 @@
       <c r="B612" t="s">
         <v>185</v>
       </c>
-      <c r="C612" t="s">
+      <c r="C612" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D612">
@@ -36554,7 +36570,7 @@
       <c r="B613" t="s">
         <v>188</v>
       </c>
-      <c r="C613" t="s">
+      <c r="C613" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D613">
@@ -36603,14 +36619,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="614" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>612</v>
       </c>
       <c r="B614" t="s">
         <v>193</v>
       </c>
-      <c r="C614" t="s">
+      <c r="C614" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D614">
@@ -36659,14 +36675,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="615" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>613</v>
       </c>
       <c r="B615" t="s">
         <v>198</v>
       </c>
-      <c r="C615" t="s">
+      <c r="C615" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D615">
@@ -36725,7 +36741,7 @@
       <c r="B616" t="s">
         <v>204</v>
       </c>
-      <c r="C616" t="s">
+      <c r="C616" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D616">
@@ -36774,14 +36790,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>615</v>
       </c>
       <c r="B617" t="s">
         <v>209</v>
       </c>
-      <c r="C617" t="s">
+      <c r="C617" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D617">
@@ -36830,14 +36846,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="618" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>616</v>
       </c>
       <c r="B618" t="s">
         <v>214</v>
       </c>
-      <c r="C618" t="s">
+      <c r="C618" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D618">
@@ -36896,7 +36912,7 @@
       <c r="B619" t="s">
         <v>144</v>
       </c>
-      <c r="C619" t="s">
+      <c r="C619" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D619">
@@ -36949,7 +36965,7 @@
       <c r="B620" t="s">
         <v>147</v>
       </c>
-      <c r="C620" t="s">
+      <c r="C620" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D620">
@@ -37005,7 +37021,7 @@
       <c r="B621" t="s">
         <v>151</v>
       </c>
-      <c r="C621" t="s">
+      <c r="C621" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D621">
@@ -37058,7 +37074,7 @@
       <c r="B622" t="s">
         <v>155</v>
       </c>
-      <c r="C622" t="s">
+      <c r="C622" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D622">
@@ -37107,14 +37123,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="623" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>621</v>
       </c>
       <c r="B623" t="s">
         <v>160</v>
       </c>
-      <c r="C623" t="s">
+      <c r="C623" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D623">
@@ -37166,14 +37182,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="624" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>622</v>
       </c>
       <c r="B624" t="s">
         <v>166</v>
       </c>
-      <c r="C624" t="s">
+      <c r="C624" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D624">
@@ -37229,7 +37245,7 @@
       <c r="B625" t="s">
         <v>171</v>
       </c>
-      <c r="C625" t="s">
+      <c r="C625" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D625">
@@ -37285,7 +37301,7 @@
       <c r="B626" t="s">
         <v>176</v>
       </c>
-      <c r="C626" t="s">
+      <c r="C626" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D626">
@@ -37338,7 +37354,7 @@
       <c r="B627" t="s">
         <v>180</v>
       </c>
-      <c r="C627" t="s">
+      <c r="C627" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D627">
@@ -37394,7 +37410,7 @@
       <c r="B628" t="s">
         <v>185</v>
       </c>
-      <c r="C628" t="s">
+      <c r="C628" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D628">
@@ -37447,7 +37463,7 @@
       <c r="B629" t="s">
         <v>188</v>
       </c>
-      <c r="C629" t="s">
+      <c r="C629" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D629">
@@ -37496,14 +37512,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="630" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>628</v>
       </c>
       <c r="B630" t="s">
         <v>193</v>
       </c>
-      <c r="C630" t="s">
+      <c r="C630" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D630">
@@ -37552,14 +37568,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="631" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>629</v>
       </c>
       <c r="B631" t="s">
         <v>198</v>
       </c>
-      <c r="C631" t="s">
+      <c r="C631" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D631">
@@ -37618,7 +37634,7 @@
       <c r="B632" t="s">
         <v>204</v>
       </c>
-      <c r="C632" t="s">
+      <c r="C632" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D632">
@@ -37667,14 +37683,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>631</v>
       </c>
       <c r="B633" t="s">
         <v>209</v>
       </c>
-      <c r="C633" t="s">
+      <c r="C633" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D633">
@@ -37723,14 +37739,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="634" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>632</v>
       </c>
       <c r="B634" t="s">
         <v>214</v>
       </c>
-      <c r="C634" t="s">
+      <c r="C634" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D634">
@@ -37789,7 +37805,7 @@
       <c r="B635" t="s">
         <v>144</v>
       </c>
-      <c r="C635" t="s">
+      <c r="C635" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D635">
@@ -37842,7 +37858,7 @@
       <c r="B636" t="s">
         <v>147</v>
       </c>
-      <c r="C636" t="s">
+      <c r="C636" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D636">
@@ -37898,7 +37914,7 @@
       <c r="B637" t="s">
         <v>151</v>
       </c>
-      <c r="C637" t="s">
+      <c r="C637" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D637">
@@ -37951,7 +37967,7 @@
       <c r="B638" t="s">
         <v>155</v>
       </c>
-      <c r="C638" t="s">
+      <c r="C638" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D638">
@@ -38000,14 +38016,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="639" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>637</v>
       </c>
       <c r="B639" t="s">
         <v>160</v>
       </c>
-      <c r="C639" t="s">
+      <c r="C639" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D639">
@@ -38059,14 +38075,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="640" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>638</v>
       </c>
       <c r="B640" t="s">
         <v>166</v>
       </c>
-      <c r="C640" t="s">
+      <c r="C640" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D640">
@@ -38122,7 +38138,7 @@
       <c r="B641" t="s">
         <v>171</v>
       </c>
-      <c r="C641" t="s">
+      <c r="C641" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D641">
@@ -38178,7 +38194,7 @@
       <c r="B642" t="s">
         <v>176</v>
       </c>
-      <c r="C642" t="s">
+      <c r="C642" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D642">
@@ -38231,7 +38247,7 @@
       <c r="B643" t="s">
         <v>180</v>
       </c>
-      <c r="C643" t="s">
+      <c r="C643" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D643">
@@ -38287,7 +38303,7 @@
       <c r="B644" t="s">
         <v>185</v>
       </c>
-      <c r="C644" t="s">
+      <c r="C644" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D644">
@@ -38340,7 +38356,7 @@
       <c r="B645" t="s">
         <v>188</v>
       </c>
-      <c r="C645" t="s">
+      <c r="C645" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D645">
@@ -38389,14 +38405,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="646" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>644</v>
       </c>
       <c r="B646" t="s">
         <v>193</v>
       </c>
-      <c r="C646" t="s">
+      <c r="C646" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D646">
@@ -38445,14 +38461,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="647" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>645</v>
       </c>
       <c r="B647" t="s">
         <v>198</v>
       </c>
-      <c r="C647" t="s">
+      <c r="C647" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D647">
@@ -38511,7 +38527,7 @@
       <c r="B648" t="s">
         <v>204</v>
       </c>
-      <c r="C648" t="s">
+      <c r="C648" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D648">
@@ -38560,14 +38576,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>647</v>
       </c>
       <c r="B649" t="s">
         <v>209</v>
       </c>
-      <c r="C649" t="s">
+      <c r="C649" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D649">
@@ -38616,14 +38632,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="650" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>648</v>
       </c>
       <c r="B650" t="s">
         <v>214</v>
       </c>
-      <c r="C650" t="s">
+      <c r="C650" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D650">
@@ -38682,7 +38698,7 @@
       <c r="B651" t="s">
         <v>144</v>
       </c>
-      <c r="C651" t="s">
+      <c r="C651" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D651">
@@ -38735,7 +38751,7 @@
       <c r="B652" t="s">
         <v>147</v>
       </c>
-      <c r="C652" t="s">
+      <c r="C652" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D652">
@@ -38791,7 +38807,7 @@
       <c r="B653" t="s">
         <v>151</v>
       </c>
-      <c r="C653" t="s">
+      <c r="C653" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D653">
@@ -38844,7 +38860,7 @@
       <c r="B654" t="s">
         <v>155</v>
       </c>
-      <c r="C654" t="s">
+      <c r="C654" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D654">
@@ -38893,14 +38909,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="655" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>653</v>
       </c>
       <c r="B655" t="s">
         <v>160</v>
       </c>
-      <c r="C655" t="s">
+      <c r="C655" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D655">
@@ -38952,14 +38968,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="656" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>654</v>
       </c>
       <c r="B656" t="s">
         <v>166</v>
       </c>
-      <c r="C656" t="s">
+      <c r="C656" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D656">
@@ -39015,7 +39031,7 @@
       <c r="B657" t="s">
         <v>171</v>
       </c>
-      <c r="C657" t="s">
+      <c r="C657" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D657">
@@ -39071,7 +39087,7 @@
       <c r="B658" t="s">
         <v>176</v>
       </c>
-      <c r="C658" t="s">
+      <c r="C658" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D658">
@@ -39124,7 +39140,7 @@
       <c r="B659" t="s">
         <v>180</v>
       </c>
-      <c r="C659" t="s">
+      <c r="C659" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D659">
@@ -39180,7 +39196,7 @@
       <c r="B660" t="s">
         <v>185</v>
       </c>
-      <c r="C660" t="s">
+      <c r="C660" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D660">
@@ -39233,7 +39249,7 @@
       <c r="B661" t="s">
         <v>188</v>
       </c>
-      <c r="C661" t="s">
+      <c r="C661" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D661">
@@ -39282,14 +39298,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="662" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>660</v>
       </c>
       <c r="B662" t="s">
         <v>193</v>
       </c>
-      <c r="C662" t="s">
+      <c r="C662" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D662">
@@ -39338,14 +39354,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="663" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>661</v>
       </c>
       <c r="B663" t="s">
         <v>198</v>
       </c>
-      <c r="C663" t="s">
+      <c r="C663" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D663">
@@ -39404,7 +39420,7 @@
       <c r="B664" t="s">
         <v>204</v>
       </c>
-      <c r="C664" t="s">
+      <c r="C664" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D664">
@@ -39453,14 +39469,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>663</v>
       </c>
       <c r="B665" t="s">
         <v>209</v>
       </c>
-      <c r="C665" t="s">
+      <c r="C665" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D665">
@@ -39509,14 +39525,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="666" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>664</v>
       </c>
       <c r="B666" t="s">
         <v>214</v>
       </c>
-      <c r="C666" t="s">
+      <c r="C666" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D666">
@@ -39575,7 +39591,7 @@
       <c r="B667" t="s">
         <v>144</v>
       </c>
-      <c r="C667" t="s">
+      <c r="C667" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D667">
@@ -39628,7 +39644,7 @@
       <c r="B668" t="s">
         <v>147</v>
       </c>
-      <c r="C668" t="s">
+      <c r="C668" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D668">
@@ -39684,7 +39700,7 @@
       <c r="B669" t="s">
         <v>151</v>
       </c>
-      <c r="C669" t="s">
+      <c r="C669" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D669">
@@ -39737,7 +39753,7 @@
       <c r="B670" t="s">
         <v>155</v>
       </c>
-      <c r="C670" t="s">
+      <c r="C670" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D670">
@@ -39786,14 +39802,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="671" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>669</v>
       </c>
       <c r="B671" t="s">
         <v>160</v>
       </c>
-      <c r="C671" t="s">
+      <c r="C671" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D671">
@@ -39845,14 +39861,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="672" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>670</v>
       </c>
       <c r="B672" t="s">
         <v>166</v>
       </c>
-      <c r="C672" t="s">
+      <c r="C672" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D672">
@@ -39908,7 +39924,7 @@
       <c r="B673" t="s">
         <v>171</v>
       </c>
-      <c r="C673" t="s">
+      <c r="C673" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D673">
@@ -39964,7 +39980,7 @@
       <c r="B674" t="s">
         <v>176</v>
       </c>
-      <c r="C674" t="s">
+      <c r="C674" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D674">
@@ -40017,7 +40033,7 @@
       <c r="B675" t="s">
         <v>180</v>
       </c>
-      <c r="C675" t="s">
+      <c r="C675" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D675">
@@ -40073,7 +40089,7 @@
       <c r="B676" t="s">
         <v>185</v>
       </c>
-      <c r="C676" t="s">
+      <c r="C676" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D676">
@@ -40126,7 +40142,7 @@
       <c r="B677" t="s">
         <v>188</v>
       </c>
-      <c r="C677" t="s">
+      <c r="C677" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D677">
@@ -40175,14 +40191,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="678" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>676</v>
       </c>
       <c r="B678" t="s">
         <v>193</v>
       </c>
-      <c r="C678" t="s">
+      <c r="C678" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D678">
@@ -40231,14 +40247,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="679" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>677</v>
       </c>
       <c r="B679" t="s">
         <v>198</v>
       </c>
-      <c r="C679" t="s">
+      <c r="C679" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D679">
@@ -40297,7 +40313,7 @@
       <c r="B680" t="s">
         <v>204</v>
       </c>
-      <c r="C680" t="s">
+      <c r="C680" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D680">
@@ -40346,14 +40362,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>679</v>
       </c>
       <c r="B681" t="s">
         <v>209</v>
       </c>
-      <c r="C681" t="s">
+      <c r="C681" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D681">
@@ -40402,14 +40418,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="682" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>680</v>
       </c>
       <c r="B682" t="s">
         <v>214</v>
       </c>
-      <c r="C682" t="s">
+      <c r="C682" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D682">
@@ -40468,7 +40484,7 @@
       <c r="B683" t="s">
         <v>144</v>
       </c>
-      <c r="C683" t="s">
+      <c r="C683" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D683">
@@ -40521,7 +40537,7 @@
       <c r="B684" t="s">
         <v>147</v>
       </c>
-      <c r="C684" t="s">
+      <c r="C684" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D684">
@@ -40577,7 +40593,7 @@
       <c r="B685" t="s">
         <v>151</v>
       </c>
-      <c r="C685" t="s">
+      <c r="C685" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D685">
@@ -40630,7 +40646,7 @@
       <c r="B686" t="s">
         <v>155</v>
       </c>
-      <c r="C686" t="s">
+      <c r="C686" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D686">
@@ -40679,14 +40695,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="687" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>685</v>
       </c>
       <c r="B687" t="s">
         <v>160</v>
       </c>
-      <c r="C687" t="s">
+      <c r="C687" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D687">
@@ -40738,14 +40754,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="688" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>686</v>
       </c>
       <c r="B688" t="s">
         <v>166</v>
       </c>
-      <c r="C688" t="s">
+      <c r="C688" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D688">
@@ -40801,7 +40817,7 @@
       <c r="B689" t="s">
         <v>171</v>
       </c>
-      <c r="C689" t="s">
+      <c r="C689" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D689">
@@ -40857,7 +40873,7 @@
       <c r="B690" t="s">
         <v>176</v>
       </c>
-      <c r="C690" t="s">
+      <c r="C690" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D690">
@@ -40910,7 +40926,7 @@
       <c r="B691" t="s">
         <v>180</v>
       </c>
-      <c r="C691" t="s">
+      <c r="C691" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D691">
@@ -40966,7 +40982,7 @@
       <c r="B692" t="s">
         <v>185</v>
       </c>
-      <c r="C692" t="s">
+      <c r="C692" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D692">
@@ -41019,7 +41035,7 @@
       <c r="B693" t="s">
         <v>188</v>
       </c>
-      <c r="C693" t="s">
+      <c r="C693" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D693">
@@ -41068,14 +41084,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="694" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>692</v>
       </c>
       <c r="B694" t="s">
         <v>193</v>
       </c>
-      <c r="C694" t="s">
+      <c r="C694" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D694">
@@ -41124,14 +41140,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="695" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>693</v>
       </c>
       <c r="B695" t="s">
         <v>198</v>
       </c>
-      <c r="C695" t="s">
+      <c r="C695" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D695">
@@ -41190,7 +41206,7 @@
       <c r="B696" t="s">
         <v>204</v>
       </c>
-      <c r="C696" t="s">
+      <c r="C696" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D696">
@@ -41239,14 +41255,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>695</v>
       </c>
       <c r="B697" t="s">
         <v>209</v>
       </c>
-      <c r="C697" t="s">
+      <c r="C697" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D697">
@@ -41295,14 +41311,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="698" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>696</v>
       </c>
       <c r="B698" t="s">
         <v>214</v>
       </c>
-      <c r="C698" t="s">
+      <c r="C698" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D698">
@@ -41361,7 +41377,7 @@
       <c r="B699" t="s">
         <v>144</v>
       </c>
-      <c r="C699" t="s">
+      <c r="C699" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D699">
@@ -41414,7 +41430,7 @@
       <c r="B700" t="s">
         <v>147</v>
       </c>
-      <c r="C700" t="s">
+      <c r="C700" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D700">
@@ -41470,7 +41486,7 @@
       <c r="B701" t="s">
         <v>151</v>
       </c>
-      <c r="C701" t="s">
+      <c r="C701" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D701">
@@ -41523,7 +41539,7 @@
       <c r="B702" t="s">
         <v>155</v>
       </c>
-      <c r="C702" t="s">
+      <c r="C702" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D702">
@@ -41572,14 +41588,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="703" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>701</v>
       </c>
       <c r="B703" t="s">
         <v>160</v>
       </c>
-      <c r="C703" t="s">
+      <c r="C703" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D703">
@@ -41631,14 +41647,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="704" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>702</v>
       </c>
       <c r="B704" t="s">
         <v>166</v>
       </c>
-      <c r="C704" t="s">
+      <c r="C704" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D704">
@@ -41694,7 +41710,7 @@
       <c r="B705" t="s">
         <v>171</v>
       </c>
-      <c r="C705" t="s">
+      <c r="C705" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D705">
@@ -41750,7 +41766,7 @@
       <c r="B706" t="s">
         <v>176</v>
       </c>
-      <c r="C706" t="s">
+      <c r="C706" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D706">
@@ -41803,7 +41819,7 @@
       <c r="B707" t="s">
         <v>180</v>
       </c>
-      <c r="C707" t="s">
+      <c r="C707" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D707">
@@ -41859,7 +41875,7 @@
       <c r="B708" t="s">
         <v>185</v>
       </c>
-      <c r="C708" t="s">
+      <c r="C708" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D708">
@@ -41912,7 +41928,7 @@
       <c r="B709" t="s">
         <v>188</v>
       </c>
-      <c r="C709" t="s">
+      <c r="C709" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D709">
@@ -41961,14 +41977,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="710" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>708</v>
       </c>
       <c r="B710" t="s">
         <v>193</v>
       </c>
-      <c r="C710" t="s">
+      <c r="C710" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D710">
@@ -42017,14 +42033,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="711" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>709</v>
       </c>
       <c r="B711" t="s">
         <v>198</v>
       </c>
-      <c r="C711" t="s">
+      <c r="C711" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D711">
@@ -42083,7 +42099,7 @@
       <c r="B712" t="s">
         <v>204</v>
       </c>
-      <c r="C712" t="s">
+      <c r="C712" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D712">
@@ -42132,14 +42148,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>711</v>
       </c>
       <c r="B713" t="s">
         <v>209</v>
       </c>
-      <c r="C713" t="s">
+      <c r="C713" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D713">
@@ -42188,14 +42204,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>712</v>
       </c>
       <c r="B714" t="s">
         <v>214</v>
       </c>
-      <c r="C714" t="s">
+      <c r="C714" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D714">
@@ -42254,7 +42270,7 @@
       <c r="B715" t="s">
         <v>144</v>
       </c>
-      <c r="C715" t="s">
+      <c r="C715" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D715">
@@ -42307,7 +42323,7 @@
       <c r="B716" t="s">
         <v>147</v>
       </c>
-      <c r="C716" t="s">
+      <c r="C716" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D716">
@@ -42363,7 +42379,7 @@
       <c r="B717" t="s">
         <v>151</v>
       </c>
-      <c r="C717" t="s">
+      <c r="C717" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D717">
@@ -42416,7 +42432,7 @@
       <c r="B718" t="s">
         <v>155</v>
       </c>
-      <c r="C718" t="s">
+      <c r="C718" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D718">
@@ -42465,14 +42481,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="719" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>717</v>
       </c>
       <c r="B719" t="s">
         <v>160</v>
       </c>
-      <c r="C719" t="s">
+      <c r="C719" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D719">
@@ -42524,14 +42540,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="720" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>718</v>
       </c>
       <c r="B720" t="s">
         <v>166</v>
       </c>
-      <c r="C720" t="s">
+      <c r="C720" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D720">
@@ -42587,7 +42603,7 @@
       <c r="B721" t="s">
         <v>171</v>
       </c>
-      <c r="C721" t="s">
+      <c r="C721" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D721">
@@ -42643,7 +42659,7 @@
       <c r="B722" t="s">
         <v>176</v>
       </c>
-      <c r="C722" t="s">
+      <c r="C722" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D722">
@@ -42696,7 +42712,7 @@
       <c r="B723" t="s">
         <v>180</v>
       </c>
-      <c r="C723" t="s">
+      <c r="C723" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D723">
@@ -42752,7 +42768,7 @@
       <c r="B724" t="s">
         <v>185</v>
       </c>
-      <c r="C724" t="s">
+      <c r="C724" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D724">
@@ -42805,7 +42821,7 @@
       <c r="B725" t="s">
         <v>188</v>
       </c>
-      <c r="C725" t="s">
+      <c r="C725" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D725">
@@ -42854,14 +42870,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="726" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>724</v>
       </c>
       <c r="B726" t="s">
         <v>193</v>
       </c>
-      <c r="C726" t="s">
+      <c r="C726" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D726">
@@ -42910,14 +42926,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="727" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>725</v>
       </c>
       <c r="B727" t="s">
         <v>198</v>
       </c>
-      <c r="C727" t="s">
+      <c r="C727" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D727">
@@ -42976,7 +42992,7 @@
       <c r="B728" t="s">
         <v>204</v>
       </c>
-      <c r="C728" t="s">
+      <c r="C728" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D728">
@@ -43025,14 +43041,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>727</v>
       </c>
       <c r="B729" t="s">
         <v>209</v>
       </c>
-      <c r="C729" t="s">
+      <c r="C729" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D729">
@@ -43081,14 +43097,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="730" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>728</v>
       </c>
       <c r="B730" t="s">
         <v>214</v>
       </c>
-      <c r="C730" t="s">
+      <c r="C730" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D730">
@@ -43147,7 +43163,7 @@
       <c r="B731" t="s">
         <v>144</v>
       </c>
-      <c r="C731" t="s">
+      <c r="C731" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D731">
@@ -43200,7 +43216,7 @@
       <c r="B732" t="s">
         <v>147</v>
       </c>
-      <c r="C732" t="s">
+      <c r="C732" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D732">
@@ -43256,7 +43272,7 @@
       <c r="B733" t="s">
         <v>151</v>
       </c>
-      <c r="C733" t="s">
+      <c r="C733" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D733">
@@ -43309,7 +43325,7 @@
       <c r="B734" t="s">
         <v>155</v>
       </c>
-      <c r="C734" t="s">
+      <c r="C734" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D734">
@@ -43358,14 +43374,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="735" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>733</v>
       </c>
       <c r="B735" t="s">
         <v>160</v>
       </c>
-      <c r="C735" t="s">
+      <c r="C735" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D735">
@@ -43417,14 +43433,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="736" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>734</v>
       </c>
       <c r="B736" t="s">
         <v>166</v>
       </c>
-      <c r="C736" t="s">
+      <c r="C736" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D736">
@@ -43480,7 +43496,7 @@
       <c r="B737" t="s">
         <v>171</v>
       </c>
-      <c r="C737" t="s">
+      <c r="C737" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D737">
@@ -43536,7 +43552,7 @@
       <c r="B738" t="s">
         <v>176</v>
       </c>
-      <c r="C738" t="s">
+      <c r="C738" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D738">
@@ -43589,7 +43605,7 @@
       <c r="B739" t="s">
         <v>180</v>
       </c>
-      <c r="C739" t="s">
+      <c r="C739" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D739">
@@ -43645,7 +43661,7 @@
       <c r="B740" t="s">
         <v>185</v>
       </c>
-      <c r="C740" t="s">
+      <c r="C740" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D740">
@@ -43698,7 +43714,7 @@
       <c r="B741" t="s">
         <v>188</v>
       </c>
-      <c r="C741" t="s">
+      <c r="C741" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D741">
@@ -43747,14 +43763,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="742" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>740</v>
       </c>
       <c r="B742" t="s">
         <v>193</v>
       </c>
-      <c r="C742" t="s">
+      <c r="C742" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D742">
@@ -43803,14 +43819,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="743" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>741</v>
       </c>
       <c r="B743" t="s">
         <v>198</v>
       </c>
-      <c r="C743" t="s">
+      <c r="C743" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D743">
@@ -43869,7 +43885,7 @@
       <c r="B744" t="s">
         <v>204</v>
       </c>
-      <c r="C744" t="s">
+      <c r="C744" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D744">
@@ -43918,14 +43934,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>743</v>
       </c>
       <c r="B745" t="s">
         <v>209</v>
       </c>
-      <c r="C745" t="s">
+      <c r="C745" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D745">
@@ -43974,14 +43990,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="746" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>744</v>
       </c>
       <c r="B746" t="s">
         <v>214</v>
       </c>
-      <c r="C746" t="s">
+      <c r="C746" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D746">
@@ -44040,7 +44056,7 @@
       <c r="B747" t="s">
         <v>144</v>
       </c>
-      <c r="C747" t="s">
+      <c r="C747" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D747">
@@ -44093,7 +44109,7 @@
       <c r="B748" t="s">
         <v>147</v>
       </c>
-      <c r="C748" t="s">
+      <c r="C748" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D748">
@@ -44149,7 +44165,7 @@
       <c r="B749" t="s">
         <v>151</v>
       </c>
-      <c r="C749" t="s">
+      <c r="C749" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D749">
@@ -44202,7 +44218,7 @@
       <c r="B750" t="s">
         <v>155</v>
       </c>
-      <c r="C750" t="s">
+      <c r="C750" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D750">
@@ -44251,14 +44267,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="751" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>749</v>
       </c>
       <c r="B751" t="s">
         <v>160</v>
       </c>
-      <c r="C751" t="s">
+      <c r="C751" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D751">
@@ -44310,14 +44326,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="752" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>750</v>
       </c>
       <c r="B752" t="s">
         <v>166</v>
       </c>
-      <c r="C752" t="s">
+      <c r="C752" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D752">
@@ -44373,7 +44389,7 @@
       <c r="B753" t="s">
         <v>171</v>
       </c>
-      <c r="C753" t="s">
+      <c r="C753" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D753">
@@ -44429,7 +44445,7 @@
       <c r="B754" t="s">
         <v>176</v>
       </c>
-      <c r="C754" t="s">
+      <c r="C754" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D754">
@@ -44482,7 +44498,7 @@
       <c r="B755" t="s">
         <v>180</v>
       </c>
-      <c r="C755" t="s">
+      <c r="C755" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D755">
@@ -44538,7 +44554,7 @@
       <c r="B756" t="s">
         <v>185</v>
       </c>
-      <c r="C756" t="s">
+      <c r="C756" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D756">
@@ -44591,7 +44607,7 @@
       <c r="B757" t="s">
         <v>188</v>
       </c>
-      <c r="C757" t="s">
+      <c r="C757" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D757">
@@ -44640,14 +44656,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="758" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>756</v>
       </c>
       <c r="B758" t="s">
         <v>193</v>
       </c>
-      <c r="C758" t="s">
+      <c r="C758" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D758">
@@ -44696,14 +44712,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="759" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>757</v>
       </c>
       <c r="B759" t="s">
         <v>198</v>
       </c>
-      <c r="C759" t="s">
+      <c r="C759" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D759">
@@ -44762,7 +44778,7 @@
       <c r="B760" t="s">
         <v>204</v>
       </c>
-      <c r="C760" t="s">
+      <c r="C760" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D760">
@@ -44811,14 +44827,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>759</v>
       </c>
       <c r="B761" t="s">
         <v>209</v>
       </c>
-      <c r="C761" t="s">
+      <c r="C761" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D761">
@@ -44867,14 +44883,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="762" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>760</v>
       </c>
       <c r="B762" t="s">
         <v>214</v>
       </c>
-      <c r="C762" t="s">
+      <c r="C762" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D762">
@@ -44933,7 +44949,7 @@
       <c r="B763" t="s">
         <v>144</v>
       </c>
-      <c r="C763" t="s">
+      <c r="C763" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D763">
@@ -44986,7 +45002,7 @@
       <c r="B764" t="s">
         <v>147</v>
       </c>
-      <c r="C764" t="s">
+      <c r="C764" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D764">
@@ -45042,7 +45058,7 @@
       <c r="B765" t="s">
         <v>151</v>
       </c>
-      <c r="C765" t="s">
+      <c r="C765" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D765">
@@ -45095,7 +45111,7 @@
       <c r="B766" t="s">
         <v>155</v>
       </c>
-      <c r="C766" t="s">
+      <c r="C766" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D766">
@@ -45144,14 +45160,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="767" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>765</v>
       </c>
       <c r="B767" t="s">
         <v>160</v>
       </c>
-      <c r="C767" t="s">
+      <c r="C767" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D767">
@@ -45203,14 +45219,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="768" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>766</v>
       </c>
       <c r="B768" t="s">
         <v>166</v>
       </c>
-      <c r="C768" t="s">
+      <c r="C768" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D768">
@@ -45266,7 +45282,7 @@
       <c r="B769" t="s">
         <v>171</v>
       </c>
-      <c r="C769" t="s">
+      <c r="C769" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D769">
@@ -45322,7 +45338,7 @@
       <c r="B770" t="s">
         <v>176</v>
       </c>
-      <c r="C770" t="s">
+      <c r="C770" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D770">
@@ -45375,7 +45391,7 @@
       <c r="B771" t="s">
         <v>180</v>
       </c>
-      <c r="C771" t="s">
+      <c r="C771" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D771">
@@ -45431,7 +45447,7 @@
       <c r="B772" t="s">
         <v>185</v>
       </c>
-      <c r="C772" t="s">
+      <c r="C772" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D772">
@@ -45484,7 +45500,7 @@
       <c r="B773" t="s">
         <v>188</v>
       </c>
-      <c r="C773" t="s">
+      <c r="C773" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D773">
@@ -45533,14 +45549,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="774" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>772</v>
       </c>
       <c r="B774" t="s">
         <v>193</v>
       </c>
-      <c r="C774" t="s">
+      <c r="C774" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D774">
@@ -45589,14 +45605,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="775" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>773</v>
       </c>
       <c r="B775" t="s">
         <v>198</v>
       </c>
-      <c r="C775" t="s">
+      <c r="C775" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D775">
@@ -45655,7 +45671,7 @@
       <c r="B776" t="s">
         <v>204</v>
       </c>
-      <c r="C776" t="s">
+      <c r="C776" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D776">
@@ -45704,14 +45720,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>775</v>
       </c>
       <c r="B777" t="s">
         <v>209</v>
       </c>
-      <c r="C777" t="s">
+      <c r="C777" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D777">
@@ -45760,14 +45776,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="778" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>776</v>
       </c>
       <c r="B778" t="s">
         <v>214</v>
       </c>
-      <c r="C778" t="s">
+      <c r="C778" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D778">
@@ -45826,7 +45842,7 @@
       <c r="B779" t="s">
         <v>144</v>
       </c>
-      <c r="C779" t="s">
+      <c r="C779" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D779">
@@ -45879,7 +45895,7 @@
       <c r="B780" t="s">
         <v>147</v>
       </c>
-      <c r="C780" t="s">
+      <c r="C780" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D780">
@@ -45935,7 +45951,7 @@
       <c r="B781" t="s">
         <v>151</v>
       </c>
-      <c r="C781" t="s">
+      <c r="C781" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D781">
@@ -45988,7 +46004,7 @@
       <c r="B782" t="s">
         <v>155</v>
       </c>
-      <c r="C782" t="s">
+      <c r="C782" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D782">
@@ -46037,14 +46053,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="783" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>781</v>
       </c>
       <c r="B783" t="s">
         <v>160</v>
       </c>
-      <c r="C783" t="s">
+      <c r="C783" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D783">
@@ -46096,14 +46112,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="784" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>782</v>
       </c>
       <c r="B784" t="s">
         <v>166</v>
       </c>
-      <c r="C784" t="s">
+      <c r="C784" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D784">
@@ -46159,7 +46175,7 @@
       <c r="B785" t="s">
         <v>171</v>
       </c>
-      <c r="C785" t="s">
+      <c r="C785" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D785">
@@ -46215,7 +46231,7 @@
       <c r="B786" t="s">
         <v>176</v>
       </c>
-      <c r="C786" t="s">
+      <c r="C786" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D786">
@@ -46268,7 +46284,7 @@
       <c r="B787" t="s">
         <v>180</v>
       </c>
-      <c r="C787" t="s">
+      <c r="C787" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D787">
@@ -46324,7 +46340,7 @@
       <c r="B788" t="s">
         <v>185</v>
       </c>
-      <c r="C788" t="s">
+      <c r="C788" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D788">
@@ -46377,7 +46393,7 @@
       <c r="B789" t="s">
         <v>188</v>
       </c>
-      <c r="C789" t="s">
+      <c r="C789" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D789">
@@ -46426,14 +46442,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="790" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>788</v>
       </c>
       <c r="B790" t="s">
         <v>193</v>
       </c>
-      <c r="C790" t="s">
+      <c r="C790" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D790">
@@ -46482,14 +46498,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="791" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>789</v>
       </c>
       <c r="B791" t="s">
         <v>198</v>
       </c>
-      <c r="C791" t="s">
+      <c r="C791" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D791">
@@ -46548,7 +46564,7 @@
       <c r="B792" t="s">
         <v>204</v>
       </c>
-      <c r="C792" t="s">
+      <c r="C792" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D792">
@@ -46597,14 +46613,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>791</v>
       </c>
       <c r="B793" t="s">
         <v>209</v>
       </c>
-      <c r="C793" t="s">
+      <c r="C793" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D793">
@@ -46653,14 +46669,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="794" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>792</v>
       </c>
       <c r="B794" t="s">
         <v>214</v>
       </c>
-      <c r="C794" t="s">
+      <c r="C794" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D794">
@@ -46719,7 +46735,7 @@
       <c r="B795" t="s">
         <v>144</v>
       </c>
-      <c r="C795" t="s">
+      <c r="C795" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D795">
@@ -46772,7 +46788,7 @@
       <c r="B796" t="s">
         <v>147</v>
       </c>
-      <c r="C796" t="s">
+      <c r="C796" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D796">
@@ -46828,7 +46844,7 @@
       <c r="B797" t="s">
         <v>151</v>
       </c>
-      <c r="C797" t="s">
+      <c r="C797" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D797">
@@ -46881,7 +46897,7 @@
       <c r="B798" t="s">
         <v>155</v>
       </c>
-      <c r="C798" t="s">
+      <c r="C798" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D798">
@@ -46930,14 +46946,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="799" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>797</v>
       </c>
       <c r="B799" t="s">
         <v>160</v>
       </c>
-      <c r="C799" t="s">
+      <c r="C799" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D799">
@@ -46989,14 +47005,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="800" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>798</v>
       </c>
       <c r="B800" t="s">
         <v>166</v>
       </c>
-      <c r="C800" t="s">
+      <c r="C800" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D800">
@@ -47052,7 +47068,7 @@
       <c r="B801" t="s">
         <v>171</v>
       </c>
-      <c r="C801" t="s">
+      <c r="C801" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D801">
@@ -47108,7 +47124,7 @@
       <c r="B802" t="s">
         <v>176</v>
       </c>
-      <c r="C802" t="s">
+      <c r="C802" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D802">
@@ -47161,7 +47177,7 @@
       <c r="B803" t="s">
         <v>180</v>
       </c>
-      <c r="C803" t="s">
+      <c r="C803" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D803">
@@ -47217,7 +47233,7 @@
       <c r="B804" t="s">
         <v>185</v>
       </c>
-      <c r="C804" t="s">
+      <c r="C804" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D804">
@@ -47270,7 +47286,7 @@
       <c r="B805" t="s">
         <v>188</v>
       </c>
-      <c r="C805" t="s">
+      <c r="C805" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D805">
@@ -47319,14 +47335,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="806" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>804</v>
       </c>
       <c r="B806" t="s">
         <v>193</v>
       </c>
-      <c r="C806" t="s">
+      <c r="C806" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D806">
@@ -47375,14 +47391,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="807" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>805</v>
       </c>
       <c r="B807" t="s">
         <v>198</v>
       </c>
-      <c r="C807" t="s">
+      <c r="C807" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D807">
@@ -47441,7 +47457,7 @@
       <c r="B808" t="s">
         <v>204</v>
       </c>
-      <c r="C808" t="s">
+      <c r="C808" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D808">
@@ -47490,14 +47506,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>807</v>
       </c>
       <c r="B809" t="s">
         <v>209</v>
       </c>
-      <c r="C809" t="s">
+      <c r="C809" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D809">
@@ -47546,14 +47562,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="810" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:19" ht="144" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>808</v>
       </c>
       <c r="B810" t="s">
         <v>214</v>
       </c>
-      <c r="C810" t="s">
+      <c r="C810" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D810">
